--- a/Kế hoạch làm việc nhóm 26.xlsx
+++ b/Kế hoạch làm việc nhóm 26.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10be73d569b19103/Máy tính/Đồ án chuyên ngành/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672F4897-36AA-419F-BDF2-72B7EAA9DBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="1890" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mjSDFEpKKJLt0PzKTqTdhx1Z70gZw=="/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -63,79 +63,7 @@
     <t>Cả nhóm</t>
   </si>
   <si>
-    <t>Tổng hợp công việc của các thành viên để hoàn thiện chương 1 BTL</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem sách theo thể loại, bảo trì sách.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ usecase,mô tả usecase xem sách theo xu hướng,bảo trì xu hướng.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ usecase,mô tả usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
     <t>Tổng hợp và viết báo cáo chương II</t>
-  </si>
-  <si>
-    <t>Xác định các yêu cầu về dữ liệu</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ thực thể liên kết mức logic</t>
-  </si>
-  <si>
-    <t>Thiết kế các bảng</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ thực thể liên kết mức vật lý</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 3</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem sách theo thể loại, bảo trì sách,vẽ biểu đồ cho các lớp entity của hệ thống.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem sách theo xu hướng,bảo trì xu hướng, vẽ biểu đồ các lớp phân tích cho nhóm usecase chính và usecase thứ cấp.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 4</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem sách theo thể loại, bảo trì sách.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem sách theo xu hướng, bảo trì xu hướng.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 5</t>
-  </si>
-  <si>
-    <t>Viết báo cáo bài tập lớn</t>
   </si>
   <si>
     <t>Nhóm: 26</t>
@@ -176,10 +104,64 @@
     <t>25/09/2024</t>
   </si>
   <si>
-    <t>Xây dựng cơ sở dữ liệu lần 1</t>
+    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase.</t>
   </si>
   <si>
-    <t>Chốt cơ sở dữ liệu lần 1, chọn ngôn ngữ code cho trang web, tìm hiểu công nghệ cần để phát triển trang web</t>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện</t>
+  </si>
+  <si>
+    <t>Code Font-End</t>
+  </si>
+  <si>
+    <t>Code Back-End</t>
+  </si>
+  <si>
+    <t>Hoàn thiện sản phẩm</t>
+  </si>
+  <si>
+    <t>Tìm và sửa lỗi</t>
+  </si>
+  <si>
+    <t>Tổng hợp và viết báo cáo chương III</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>Xây dựng cơ sở dữ liệu.</t>
+  </si>
+  <si>
+    <t>Chốt cơ sở dữ liệu, chọn ngôn ngữ code cho trang web, tìm hiểu công nghệ cần để phát triển trang web.</t>
+  </si>
+  <si>
+    <t>Tổng hợp và viết báo cáo chương I</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>25/12/2024</t>
+  </si>
+  <si>
+    <t>Chốt giao diện</t>
   </si>
 </sst>
 </file>
@@ -287,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,12 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -574,31 +550,31 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="17" customWidth="1"/>
     <col min="3" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -618,17 +594,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>37</v>
+      <c r="A2" s="20" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -648,17 +624,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>38</v>
+      <c r="A3" s="20" t="s">
+        <v>14</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -678,17 +654,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>39</v>
+      <c r="A4" s="20" t="s">
+        <v>15</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -708,17 +684,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>40</v>
+      <c r="A5" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -741,7 +717,7 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -783,24 +759,24 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>43</v>
+      <c r="B7" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -829,18 +805,18 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>44</v>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7">
         <v>45332</v>
@@ -875,22 +851,34 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="7">
+        <v>45332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45332</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45545</v>
+      </c>
+      <c r="F9" s="7">
+        <v>45545</v>
+      </c>
       <c r="G9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -909,22 +897,34 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>13</v>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="7">
+        <v>45545</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45545</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -942,22 +942,34 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>14</v>
+      <c r="B11" s="13" t="s">
+        <v>24</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -975,21 +987,27 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>15</v>
+      <c r="B12" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1008,21 +1026,27 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>16</v>
+      <c r="B13" s="13" t="s">
+        <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>45454</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1042,21 +1066,27 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>17</v>
+      <c r="B14" s="13" t="s">
+        <v>25</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="7">
+        <v>45454</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1076,21 +1106,27 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>18</v>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1110,22 +1146,28 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>19</v>
+      <c r="B16" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1148,18 +1190,24 @@
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>20</v>
+      <c r="B17" s="12" t="s">
+        <v>12</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>45394</v>
+      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1182,18 +1230,24 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>21</v>
+      <c r="B18" s="13" t="s">
+        <v>28</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="7">
+        <v>45394</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>45608</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1216,18 +1270,24 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>21</v>
+      <c r="B19" s="13" t="s">
+        <v>28</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="C19" s="7">
+        <v>45608</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1246,21 +1306,27 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>22</v>
+      <c r="B20" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1284,17 +1350,23 @@
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>23</v>
+      <c r="B21" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>45658</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1314,20 +1386,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>24</v>
-      </c>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
@@ -1348,20 +1414,14 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>17</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
@@ -1382,20 +1442,14 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>18</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>26</v>
-      </c>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
@@ -1416,20 +1470,14 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>19</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>27</v>
-      </c>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
@@ -1450,20 +1498,14 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>20</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>28</v>
-      </c>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
@@ -1484,22 +1526,16 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>21</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1518,20 +1554,14 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>22</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
@@ -1552,20 +1582,14 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>23</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>31</v>
-      </c>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="1"/>
@@ -1586,20 +1610,14 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>24</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>32</v>
-      </c>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="1"/>
@@ -1620,20 +1638,14 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>25</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>33</v>
-      </c>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
@@ -1654,20 +1666,14 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>26</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>34</v>
-      </c>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="1"/>
@@ -1688,20 +1694,14 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>27</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>35</v>
-      </c>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
@@ -1723,19 +1723,13 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>28</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
@@ -6826,7 +6820,7 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
-      <c r="B216" s="18"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -6854,7 +6848,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
-      <c r="B217" s="18"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -6882,7 +6876,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
-      <c r="B218" s="18"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -6910,7 +6904,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -6938,7 +6932,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
-      <c r="B220" s="18"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -6966,7 +6960,7 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
-      <c r="B221" s="18"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -6994,7 +6988,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
-      <c r="B222" s="18"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7022,7 +7016,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
-      <c r="B223" s="18"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7050,7 +7044,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
-      <c r="B224" s="18"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7078,7 +7072,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
-      <c r="B225" s="18"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7106,7 +7100,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
-      <c r="B226" s="18"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7134,7 +7128,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
-      <c r="B227" s="18"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7162,7 +7156,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
-      <c r="B228" s="18"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7190,7 +7184,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
-      <c r="B229" s="18"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7218,7 +7212,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
-      <c r="B230" s="18"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7246,7 +7240,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
-      <c r="B231" s="18"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7274,7 +7268,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
-      <c r="B232" s="18"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7302,7 +7296,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
-      <c r="B233" s="18"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7330,7 +7324,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
-      <c r="B234" s="18"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7358,7 +7352,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
-      <c r="B235" s="18"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7386,7 +7380,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
-      <c r="B236" s="18"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7414,7 +7408,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
-      <c r="B237" s="18"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7442,7 +7436,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
-      <c r="B238" s="18"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7470,7 +7464,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
-      <c r="B239" s="18"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7498,7 +7492,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
-      <c r="B240" s="18"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7526,7 +7520,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
-      <c r="B241" s="18"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7554,7 +7548,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
-      <c r="B242" s="18"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7582,7 +7576,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="18"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7610,7 +7604,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
-      <c r="B244" s="18"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7638,7 +7632,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
-      <c r="B245" s="18"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7666,7 +7660,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
-      <c r="B246" s="18"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7694,7 +7688,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
-      <c r="B247" s="18"/>
+      <c r="B247" s="16"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7722,7 +7716,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
-      <c r="B248" s="18"/>
+      <c r="B248" s="16"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7750,7 +7744,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
-      <c r="B249" s="18"/>
+      <c r="B249" s="16"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7778,7 +7772,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
-      <c r="B250" s="18"/>
+      <c r="B250" s="16"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -7806,7 +7800,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
-      <c r="B251" s="18"/>
+      <c r="B251" s="16"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -7834,7 +7828,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
-      <c r="B252" s="18"/>
+      <c r="B252" s="16"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -7862,7 +7856,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
-      <c r="B253" s="18"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -7890,7 +7884,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="18"/>
+      <c r="B254" s="16"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -7918,7 +7912,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
-      <c r="B255" s="18"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -7946,7 +7940,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
-      <c r="B256" s="18"/>
+      <c r="B256" s="16"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -7974,7 +7968,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
-      <c r="B257" s="18"/>
+      <c r="B257" s="16"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8002,7 +7996,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
-      <c r="B258" s="18"/>
+      <c r="B258" s="16"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8030,7 +8024,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
-      <c r="B259" s="18"/>
+      <c r="B259" s="16"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8058,7 +8052,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
-      <c r="B260" s="18"/>
+      <c r="B260" s="16"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8086,7 +8080,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
-      <c r="B261" s="18"/>
+      <c r="B261" s="16"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8114,7 +8108,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
-      <c r="B262" s="18"/>
+      <c r="B262" s="16"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8142,7 +8136,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
-      <c r="B263" s="18"/>
+      <c r="B263" s="16"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8170,7 +8164,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
-      <c r="B264" s="18"/>
+      <c r="B264" s="16"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8198,7 +8192,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
-      <c r="B265" s="18"/>
+      <c r="B265" s="16"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8226,7 +8220,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
-      <c r="B266" s="18"/>
+      <c r="B266" s="16"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8254,7 +8248,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
-      <c r="B267" s="18"/>
+      <c r="B267" s="16"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8282,7 +8276,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
-      <c r="B268" s="18"/>
+      <c r="B268" s="16"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8310,7 +8304,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
-      <c r="B269" s="18"/>
+      <c r="B269" s="16"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8338,7 +8332,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
-      <c r="B270" s="18"/>
+      <c r="B270" s="16"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8366,7 +8360,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
-      <c r="B271" s="18"/>
+      <c r="B271" s="16"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8394,7 +8388,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
-      <c r="B272" s="18"/>
+      <c r="B272" s="16"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8422,7 +8416,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
-      <c r="B273" s="18"/>
+      <c r="B273" s="16"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8450,7 +8444,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
-      <c r="B274" s="18"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8478,7 +8472,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
-      <c r="B275" s="18"/>
+      <c r="B275" s="16"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8506,7 +8500,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
-      <c r="B276" s="18"/>
+      <c r="B276" s="16"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8534,7 +8528,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
-      <c r="B277" s="18"/>
+      <c r="B277" s="16"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8562,7 +8556,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
-      <c r="B278" s="18"/>
+      <c r="B278" s="16"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8590,7 +8584,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
-      <c r="B279" s="18"/>
+      <c r="B279" s="16"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8618,7 +8612,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
-      <c r="B280" s="18"/>
+      <c r="B280" s="16"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8646,7 +8640,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
-      <c r="B281" s="18"/>
+      <c r="B281" s="16"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8674,7 +8668,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
-      <c r="B282" s="18"/>
+      <c r="B282" s="16"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8702,7 +8696,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
-      <c r="B283" s="18"/>
+      <c r="B283" s="16"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -8730,7 +8724,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
-      <c r="B284" s="18"/>
+      <c r="B284" s="16"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -8758,7 +8752,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
-      <c r="B285" s="18"/>
+      <c r="B285" s="16"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -8786,7 +8780,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
-      <c r="B286" s="18"/>
+      <c r="B286" s="16"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -8814,7 +8808,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
-      <c r="B287" s="18"/>
+      <c r="B287" s="16"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -8842,7 +8836,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
-      <c r="B288" s="18"/>
+      <c r="B288" s="16"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -8870,7 +8864,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
-      <c r="B289" s="18"/>
+      <c r="B289" s="16"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -8898,7 +8892,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
-      <c r="B290" s="18"/>
+      <c r="B290" s="16"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -8926,7 +8920,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
-      <c r="B291" s="18"/>
+      <c r="B291" s="16"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -8954,7 +8948,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
-      <c r="B292" s="18"/>
+      <c r="B292" s="16"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -8982,7 +8976,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
-      <c r="B293" s="18"/>
+      <c r="B293" s="16"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -9010,7 +9004,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
-      <c r="B294" s="18"/>
+      <c r="B294" s="16"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -9038,7 +9032,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
-      <c r="B295" s="18"/>
+      <c r="B295" s="16"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -9066,7 +9060,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
-      <c r="B296" s="18"/>
+      <c r="B296" s="16"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -9094,7 +9088,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
-      <c r="B297" s="18"/>
+      <c r="B297" s="16"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -9122,7 +9116,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
-      <c r="B298" s="18"/>
+      <c r="B298" s="16"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -9150,7 +9144,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
-      <c r="B299" s="18"/>
+      <c r="B299" s="16"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -9178,7 +9172,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
-      <c r="B300" s="18"/>
+      <c r="B300" s="16"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -9206,7 +9200,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
-      <c r="B301" s="18"/>
+      <c r="B301" s="16"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -9234,7 +9228,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
-      <c r="B302" s="18"/>
+      <c r="B302" s="16"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9262,7 +9256,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
-      <c r="B303" s="18"/>
+      <c r="B303" s="16"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9290,7 +9284,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
-      <c r="B304" s="18"/>
+      <c r="B304" s="16"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9318,7 +9312,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
-      <c r="B305" s="18"/>
+      <c r="B305" s="16"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9346,7 +9340,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
-      <c r="B306" s="18"/>
+      <c r="B306" s="16"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9374,7 +9368,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
-      <c r="B307" s="18"/>
+      <c r="B307" s="16"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9402,7 +9396,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
-      <c r="B308" s="18"/>
+      <c r="B308" s="16"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9430,7 +9424,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
-      <c r="B309" s="18"/>
+      <c r="B309" s="16"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9458,7 +9452,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
-      <c r="B310" s="18"/>
+      <c r="B310" s="16"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9486,7 +9480,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
-      <c r="B311" s="18"/>
+      <c r="B311" s="16"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9514,7 +9508,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
-      <c r="B312" s="18"/>
+      <c r="B312" s="16"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9542,7 +9536,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
-      <c r="B313" s="18"/>
+      <c r="B313" s="16"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9570,7 +9564,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
-      <c r="B314" s="18"/>
+      <c r="B314" s="16"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9598,7 +9592,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
-      <c r="B315" s="18"/>
+      <c r="B315" s="16"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9626,7 +9620,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
-      <c r="B316" s="18"/>
+      <c r="B316" s="16"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9654,7 +9648,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
-      <c r="B317" s="18"/>
+      <c r="B317" s="16"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9682,7 +9676,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
-      <c r="B318" s="18"/>
+      <c r="B318" s="16"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -9710,7 +9704,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
-      <c r="B319" s="18"/>
+      <c r="B319" s="16"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -9738,7 +9732,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
-      <c r="B320" s="18"/>
+      <c r="B320" s="16"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9766,7 +9760,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
-      <c r="B321" s="18"/>
+      <c r="B321" s="16"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -9794,7 +9788,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
-      <c r="B322" s="18"/>
+      <c r="B322" s="16"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -9822,7 +9816,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
-      <c r="B323" s="18"/>
+      <c r="B323" s="16"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -9850,7 +9844,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
-      <c r="B324" s="18"/>
+      <c r="B324" s="16"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -9878,7 +9872,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
-      <c r="B325" s="18"/>
+      <c r="B325" s="16"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -9906,7 +9900,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
-      <c r="B326" s="18"/>
+      <c r="B326" s="16"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -9934,7 +9928,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
-      <c r="B327" s="18"/>
+      <c r="B327" s="16"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -9962,7 +9956,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
-      <c r="B328" s="18"/>
+      <c r="B328" s="16"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -9990,7 +9984,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
-      <c r="B329" s="18"/>
+      <c r="B329" s="16"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -10018,7 +10012,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
-      <c r="B330" s="18"/>
+      <c r="B330" s="16"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -10046,7 +10040,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
-      <c r="B331" s="18"/>
+      <c r="B331" s="16"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -10074,7 +10068,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
-      <c r="B332" s="18"/>
+      <c r="B332" s="16"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -10102,7 +10096,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
-      <c r="B333" s="18"/>
+      <c r="B333" s="16"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -10130,7 +10124,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
-      <c r="B334" s="18"/>
+      <c r="B334" s="16"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -10158,7 +10152,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
-      <c r="B335" s="18"/>
+      <c r="B335" s="16"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -10186,7 +10180,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
-      <c r="B336" s="18"/>
+      <c r="B336" s="16"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -10214,7 +10208,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
-      <c r="B337" s="18"/>
+      <c r="B337" s="16"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -10242,7 +10236,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
-      <c r="B338" s="18"/>
+      <c r="B338" s="16"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -10270,7 +10264,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
-      <c r="B339" s="18"/>
+      <c r="B339" s="16"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -10298,7 +10292,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
-      <c r="B340" s="18"/>
+      <c r="B340" s="16"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -10326,7 +10320,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
-      <c r="B341" s="18"/>
+      <c r="B341" s="16"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -10354,7 +10348,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
-      <c r="B342" s="18"/>
+      <c r="B342" s="16"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -10382,7 +10376,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
-      <c r="B343" s="18"/>
+      <c r="B343" s="16"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -10410,7 +10404,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
-      <c r="B344" s="18"/>
+      <c r="B344" s="16"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -10438,7 +10432,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
-      <c r="B345" s="18"/>
+      <c r="B345" s="16"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -10466,7 +10460,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
-      <c r="B346" s="18"/>
+      <c r="B346" s="16"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -10494,7 +10488,7 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
-      <c r="B347" s="18"/>
+      <c r="B347" s="16"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -10522,7 +10516,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
-      <c r="B348" s="18"/>
+      <c r="B348" s="16"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10550,7 +10544,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
-      <c r="B349" s="18"/>
+      <c r="B349" s="16"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10578,7 +10572,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
-      <c r="B350" s="18"/>
+      <c r="B350" s="16"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10606,7 +10600,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
-      <c r="B351" s="18"/>
+      <c r="B351" s="16"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10634,7 +10628,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
-      <c r="B352" s="18"/>
+      <c r="B352" s="16"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10662,7 +10656,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
-      <c r="B353" s="18"/>
+      <c r="B353" s="16"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10690,7 +10684,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
-      <c r="B354" s="18"/>
+      <c r="B354" s="16"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -10718,7 +10712,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
-      <c r="B355" s="18"/>
+      <c r="B355" s="16"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -10746,7 +10740,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
-      <c r="B356" s="18"/>
+      <c r="B356" s="16"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -10774,7 +10768,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
-      <c r="B357" s="18"/>
+      <c r="B357" s="16"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -10802,7 +10796,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
-      <c r="B358" s="18"/>
+      <c r="B358" s="16"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -10830,7 +10824,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
-      <c r="B359" s="18"/>
+      <c r="B359" s="16"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -10858,7 +10852,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
-      <c r="B360" s="18"/>
+      <c r="B360" s="16"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -10886,7 +10880,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
-      <c r="B361" s="18"/>
+      <c r="B361" s="16"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -10914,7 +10908,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
-      <c r="B362" s="18"/>
+      <c r="B362" s="16"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -10942,7 +10936,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
-      <c r="B363" s="18"/>
+      <c r="B363" s="16"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -10970,7 +10964,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
-      <c r="B364" s="18"/>
+      <c r="B364" s="16"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -10998,7 +10992,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
-      <c r="B365" s="18"/>
+      <c r="B365" s="16"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11026,7 +11020,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
-      <c r="B366" s="18"/>
+      <c r="B366" s="16"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11054,7 +11048,7 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
-      <c r="B367" s="18"/>
+      <c r="B367" s="16"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11082,7 +11076,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
-      <c r="B368" s="18"/>
+      <c r="B368" s="16"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11110,7 +11104,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
-      <c r="B369" s="18"/>
+      <c r="B369" s="16"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11138,7 +11132,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
-      <c r="B370" s="18"/>
+      <c r="B370" s="16"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -11166,7 +11160,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
-      <c r="B371" s="18"/>
+      <c r="B371" s="16"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -11194,7 +11188,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
-      <c r="B372" s="18"/>
+      <c r="B372" s="16"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -11222,7 +11216,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
-      <c r="B373" s="18"/>
+      <c r="B373" s="16"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -11250,7 +11244,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
-      <c r="B374" s="18"/>
+      <c r="B374" s="16"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -11278,7 +11272,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
-      <c r="B375" s="18"/>
+      <c r="B375" s="16"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -11306,7 +11300,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
-      <c r="B376" s="18"/>
+      <c r="B376" s="16"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -11334,7 +11328,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
-      <c r="B377" s="18"/>
+      <c r="B377" s="16"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -11362,7 +11356,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
-      <c r="B378" s="18"/>
+      <c r="B378" s="16"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -11390,7 +11384,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
-      <c r="B379" s="18"/>
+      <c r="B379" s="16"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -11418,7 +11412,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
-      <c r="B380" s="18"/>
+      <c r="B380" s="16"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -11446,7 +11440,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
-      <c r="B381" s="18"/>
+      <c r="B381" s="16"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -11474,7 +11468,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
-      <c r="B382" s="18"/>
+      <c r="B382" s="16"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -11502,7 +11496,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
-      <c r="B383" s="18"/>
+      <c r="B383" s="16"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -11530,7 +11524,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
-      <c r="B384" s="18"/>
+      <c r="B384" s="16"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -11558,7 +11552,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
-      <c r="B385" s="18"/>
+      <c r="B385" s="16"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -11586,7 +11580,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
-      <c r="B386" s="18"/>
+      <c r="B386" s="16"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -11614,7 +11608,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
-      <c r="B387" s="18"/>
+      <c r="B387" s="16"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -11642,7 +11636,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
-      <c r="B388" s="18"/>
+      <c r="B388" s="16"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -11670,7 +11664,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
-      <c r="B389" s="18"/>
+      <c r="B389" s="16"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -11698,7 +11692,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
-      <c r="B390" s="18"/>
+      <c r="B390" s="16"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -11726,7 +11720,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
-      <c r="B391" s="18"/>
+      <c r="B391" s="16"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -11754,7 +11748,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
-      <c r="B392" s="18"/>
+      <c r="B392" s="16"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -11782,7 +11776,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
-      <c r="B393" s="18"/>
+      <c r="B393" s="16"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -11810,7 +11804,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
-      <c r="B394" s="18"/>
+      <c r="B394" s="16"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -11838,7 +11832,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
-      <c r="B395" s="18"/>
+      <c r="B395" s="16"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -11866,7 +11860,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
-      <c r="B396" s="18"/>
+      <c r="B396" s="16"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -11894,7 +11888,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
-      <c r="B397" s="18"/>
+      <c r="B397" s="16"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -11922,7 +11916,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
-      <c r="B398" s="18"/>
+      <c r="B398" s="16"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -11950,7 +11944,7 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
-      <c r="B399" s="18"/>
+      <c r="B399" s="16"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -11978,7 +11972,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
-      <c r="B400" s="18"/>
+      <c r="B400" s="16"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12006,7 +12000,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
-      <c r="B401" s="18"/>
+      <c r="B401" s="16"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12034,7 +12028,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
-      <c r="B402" s="18"/>
+      <c r="B402" s="16"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12062,7 +12056,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
-      <c r="B403" s="18"/>
+      <c r="B403" s="16"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12090,7 +12084,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
-      <c r="B404" s="18"/>
+      <c r="B404" s="16"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12118,7 +12112,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
-      <c r="B405" s="18"/>
+      <c r="B405" s="16"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12146,7 +12140,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
-      <c r="B406" s="18"/>
+      <c r="B406" s="16"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12174,7 +12168,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
-      <c r="B407" s="18"/>
+      <c r="B407" s="16"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12202,7 +12196,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
-      <c r="B408" s="18"/>
+      <c r="B408" s="16"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12230,7 +12224,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
-      <c r="B409" s="18"/>
+      <c r="B409" s="16"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12258,7 +12252,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
-      <c r="B410" s="18"/>
+      <c r="B410" s="16"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12286,7 +12280,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
-      <c r="B411" s="18"/>
+      <c r="B411" s="16"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12314,7 +12308,7 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
-      <c r="B412" s="18"/>
+      <c r="B412" s="16"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12342,7 +12336,7 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
-      <c r="B413" s="18"/>
+      <c r="B413" s="16"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12370,7 +12364,7 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
-      <c r="B414" s="18"/>
+      <c r="B414" s="16"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12398,7 +12392,7 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
-      <c r="B415" s="18"/>
+      <c r="B415" s="16"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -12426,7 +12420,7 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
-      <c r="B416" s="18"/>
+      <c r="B416" s="16"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -12454,7 +12448,7 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
-      <c r="B417" s="18"/>
+      <c r="B417" s="16"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -12482,7 +12476,7 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
-      <c r="B418" s="18"/>
+      <c r="B418" s="16"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -12510,7 +12504,7 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
-      <c r="B419" s="18"/>
+      <c r="B419" s="16"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -12538,7 +12532,7 @@
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
-      <c r="B420" s="18"/>
+      <c r="B420" s="16"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -12566,7 +12560,7 @@
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
-      <c r="B421" s="18"/>
+      <c r="B421" s="16"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -12594,7 +12588,7 @@
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
-      <c r="B422" s="18"/>
+      <c r="B422" s="16"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -12622,7 +12616,7 @@
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
-      <c r="B423" s="18"/>
+      <c r="B423" s="16"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -12650,7 +12644,7 @@
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
-      <c r="B424" s="18"/>
+      <c r="B424" s="16"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -12678,7 +12672,7 @@
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
-      <c r="B425" s="18"/>
+      <c r="B425" s="16"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -12706,7 +12700,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
-      <c r="B426" s="18"/>
+      <c r="B426" s="16"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -12734,7 +12728,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
-      <c r="B427" s="18"/>
+      <c r="B427" s="16"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -12762,7 +12756,7 @@
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
-      <c r="B428" s="18"/>
+      <c r="B428" s="16"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -12790,7 +12784,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
-      <c r="B429" s="18"/>
+      <c r="B429" s="16"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -12818,7 +12812,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
-      <c r="B430" s="18"/>
+      <c r="B430" s="16"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -12846,7 +12840,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
-      <c r="B431" s="18"/>
+      <c r="B431" s="16"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -12874,7 +12868,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
-      <c r="B432" s="18"/>
+      <c r="B432" s="16"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -12902,7 +12896,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
-      <c r="B433" s="18"/>
+      <c r="B433" s="16"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -12930,7 +12924,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
-      <c r="B434" s="18"/>
+      <c r="B434" s="16"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -12958,7 +12952,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
-      <c r="B435" s="18"/>
+      <c r="B435" s="16"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -12986,7 +12980,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
-      <c r="B436" s="18"/>
+      <c r="B436" s="16"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13014,7 +13008,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
-      <c r="B437" s="18"/>
+      <c r="B437" s="16"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13042,7 +13036,7 @@
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
-      <c r="B438" s="18"/>
+      <c r="B438" s="16"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13070,7 +13064,7 @@
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
-      <c r="B439" s="18"/>
+      <c r="B439" s="16"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13098,7 +13092,7 @@
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
-      <c r="B440" s="18"/>
+      <c r="B440" s="16"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13126,7 +13120,7 @@
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
-      <c r="B441" s="18"/>
+      <c r="B441" s="16"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13154,7 +13148,7 @@
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
-      <c r="B442" s="18"/>
+      <c r="B442" s="16"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13182,7 +13176,7 @@
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
-      <c r="B443" s="18"/>
+      <c r="B443" s="16"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13210,7 +13204,7 @@
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
-      <c r="B444" s="18"/>
+      <c r="B444" s="16"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13238,7 +13232,7 @@
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
-      <c r="B445" s="18"/>
+      <c r="B445" s="16"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13266,7 +13260,7 @@
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
-      <c r="B446" s="18"/>
+      <c r="B446" s="16"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13294,7 +13288,7 @@
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
-      <c r="B447" s="18"/>
+      <c r="B447" s="16"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13322,7 +13316,7 @@
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
-      <c r="B448" s="18"/>
+      <c r="B448" s="16"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13350,7 +13344,7 @@
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
-      <c r="B449" s="18"/>
+      <c r="B449" s="16"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13378,7 +13372,7 @@
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
-      <c r="B450" s="18"/>
+      <c r="B450" s="16"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13406,7 +13400,7 @@
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
-      <c r="B451" s="18"/>
+      <c r="B451" s="16"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13434,7 +13428,7 @@
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
-      <c r="B452" s="18"/>
+      <c r="B452" s="16"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13462,7 +13456,7 @@
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
-      <c r="B453" s="18"/>
+      <c r="B453" s="16"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13490,7 +13484,7 @@
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
-      <c r="B454" s="18"/>
+      <c r="B454" s="16"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13518,7 +13512,7 @@
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
-      <c r="B455" s="18"/>
+      <c r="B455" s="16"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13546,7 +13540,7 @@
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
-      <c r="B456" s="18"/>
+      <c r="B456" s="16"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13574,7 +13568,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
-      <c r="B457" s="18"/>
+      <c r="B457" s="16"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13602,7 +13596,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
-      <c r="B458" s="18"/>
+      <c r="B458" s="16"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13630,7 +13624,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
-      <c r="B459" s="18"/>
+      <c r="B459" s="16"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13658,7 +13652,7 @@
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
-      <c r="B460" s="18"/>
+      <c r="B460" s="16"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13686,7 +13680,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
-      <c r="B461" s="18"/>
+      <c r="B461" s="16"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -13714,7 +13708,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
-      <c r="B462" s="18"/>
+      <c r="B462" s="16"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -13742,7 +13736,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
-      <c r="B463" s="18"/>
+      <c r="B463" s="16"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -13770,7 +13764,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
-      <c r="B464" s="18"/>
+      <c r="B464" s="16"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -13798,7 +13792,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
-      <c r="B465" s="18"/>
+      <c r="B465" s="16"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -13826,7 +13820,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
-      <c r="B466" s="18"/>
+      <c r="B466" s="16"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -13854,7 +13848,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
-      <c r="B467" s="18"/>
+      <c r="B467" s="16"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -13882,7 +13876,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
-      <c r="B468" s="18"/>
+      <c r="B468" s="16"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -13910,7 +13904,7 @@
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
-      <c r="B469" s="18"/>
+      <c r="B469" s="16"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -13938,7 +13932,7 @@
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
-      <c r="B470" s="18"/>
+      <c r="B470" s="16"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -13966,7 +13960,7 @@
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
-      <c r="B471" s="18"/>
+      <c r="B471" s="16"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -13994,7 +13988,7 @@
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
-      <c r="B472" s="18"/>
+      <c r="B472" s="16"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14022,7 +14016,7 @@
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
-      <c r="B473" s="18"/>
+      <c r="B473" s="16"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14050,7 +14044,7 @@
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
-      <c r="B474" s="18"/>
+      <c r="B474" s="16"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14078,7 +14072,7 @@
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
-      <c r="B475" s="18"/>
+      <c r="B475" s="16"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14106,7 +14100,7 @@
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
-      <c r="B476" s="18"/>
+      <c r="B476" s="16"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14134,7 +14128,7 @@
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
-      <c r="B477" s="18"/>
+      <c r="B477" s="16"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14162,7 +14156,7 @@
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
-      <c r="B478" s="18"/>
+      <c r="B478" s="16"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14190,7 +14184,7 @@
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
-      <c r="B479" s="18"/>
+      <c r="B479" s="16"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14218,7 +14212,7 @@
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
-      <c r="B480" s="18"/>
+      <c r="B480" s="16"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14246,7 +14240,7 @@
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
-      <c r="B481" s="18"/>
+      <c r="B481" s="16"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14274,7 +14268,7 @@
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
-      <c r="B482" s="18"/>
+      <c r="B482" s="16"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14302,7 +14296,7 @@
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
-      <c r="B483" s="18"/>
+      <c r="B483" s="16"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14330,7 +14324,7 @@
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
-      <c r="B484" s="18"/>
+      <c r="B484" s="16"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14358,7 +14352,7 @@
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
-      <c r="B485" s="18"/>
+      <c r="B485" s="16"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14386,7 +14380,7 @@
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
-      <c r="B486" s="18"/>
+      <c r="B486" s="16"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14414,7 +14408,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
-      <c r="B487" s="18"/>
+      <c r="B487" s="16"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14442,7 +14436,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
-      <c r="B488" s="18"/>
+      <c r="B488" s="16"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14470,7 +14464,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
-      <c r="B489" s="18"/>
+      <c r="B489" s="16"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14498,7 +14492,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
-      <c r="B490" s="18"/>
+      <c r="B490" s="16"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14526,7 +14520,7 @@
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
-      <c r="B491" s="18"/>
+      <c r="B491" s="16"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14554,7 +14548,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
-      <c r="B492" s="18"/>
+      <c r="B492" s="16"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14582,7 +14576,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
-      <c r="B493" s="18"/>
+      <c r="B493" s="16"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14610,7 +14604,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
-      <c r="B494" s="18"/>
+      <c r="B494" s="16"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14638,7 +14632,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
-      <c r="B495" s="18"/>
+      <c r="B495" s="16"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14666,7 +14660,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
-      <c r="B496" s="18"/>
+      <c r="B496" s="16"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14694,7 +14688,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
-      <c r="B497" s="18"/>
+      <c r="B497" s="16"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -14722,7 +14716,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
-      <c r="B498" s="18"/>
+      <c r="B498" s="16"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -14750,7 +14744,7 @@
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
-      <c r="B499" s="18"/>
+      <c r="B499" s="16"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -14778,7 +14772,7 @@
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
-      <c r="B500" s="18"/>
+      <c r="B500" s="16"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -14806,7 +14800,7 @@
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
-      <c r="B501" s="18"/>
+      <c r="B501" s="16"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -14834,7 +14828,7 @@
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
-      <c r="B502" s="18"/>
+      <c r="B502" s="16"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -14862,7 +14856,7 @@
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
-      <c r="B503" s="18"/>
+      <c r="B503" s="16"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -14890,7 +14884,7 @@
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
-      <c r="B504" s="18"/>
+      <c r="B504" s="16"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -14918,7 +14912,7 @@
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
-      <c r="B505" s="18"/>
+      <c r="B505" s="16"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -14946,7 +14940,7 @@
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
-      <c r="B506" s="18"/>
+      <c r="B506" s="16"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -14974,7 +14968,7 @@
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
-      <c r="B507" s="18"/>
+      <c r="B507" s="16"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15002,7 +14996,7 @@
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
-      <c r="B508" s="18"/>
+      <c r="B508" s="16"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15030,7 +15024,7 @@
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
-      <c r="B509" s="18"/>
+      <c r="B509" s="16"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15058,7 +15052,7 @@
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
-      <c r="B510" s="18"/>
+      <c r="B510" s="16"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15086,7 +15080,7 @@
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
-      <c r="B511" s="18"/>
+      <c r="B511" s="16"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15114,7 +15108,7 @@
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
-      <c r="B512" s="18"/>
+      <c r="B512" s="16"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15142,7 +15136,7 @@
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
-      <c r="B513" s="18"/>
+      <c r="B513" s="16"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15170,7 +15164,7 @@
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
-      <c r="B514" s="18"/>
+      <c r="B514" s="16"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15198,7 +15192,7 @@
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
-      <c r="B515" s="18"/>
+      <c r="B515" s="16"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15226,7 +15220,7 @@
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
-      <c r="B516" s="18"/>
+      <c r="B516" s="16"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15254,7 +15248,7 @@
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
-      <c r="B517" s="18"/>
+      <c r="B517" s="16"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15282,7 +15276,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
-      <c r="B518" s="18"/>
+      <c r="B518" s="16"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15310,7 +15304,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
-      <c r="B519" s="18"/>
+      <c r="B519" s="16"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15338,7 +15332,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
-      <c r="B520" s="18"/>
+      <c r="B520" s="16"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15366,7 +15360,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
-      <c r="B521" s="18"/>
+      <c r="B521" s="16"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15394,7 +15388,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
-      <c r="B522" s="18"/>
+      <c r="B522" s="16"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15422,7 +15416,7 @@
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
-      <c r="B523" s="18"/>
+      <c r="B523" s="16"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15450,7 +15444,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
-      <c r="B524" s="18"/>
+      <c r="B524" s="16"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15478,7 +15472,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
-      <c r="B525" s="18"/>
+      <c r="B525" s="16"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15506,7 +15500,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
-      <c r="B526" s="18"/>
+      <c r="B526" s="16"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15534,7 +15528,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
-      <c r="B527" s="18"/>
+      <c r="B527" s="16"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15562,7 +15556,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
-      <c r="B528" s="18"/>
+      <c r="B528" s="16"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15590,7 +15584,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
-      <c r="B529" s="18"/>
+      <c r="B529" s="16"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15618,7 +15612,7 @@
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
-      <c r="B530" s="18"/>
+      <c r="B530" s="16"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15646,7 +15640,7 @@
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
-      <c r="B531" s="18"/>
+      <c r="B531" s="16"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15674,7 +15668,7 @@
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
-      <c r="B532" s="18"/>
+      <c r="B532" s="16"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15702,7 +15696,7 @@
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
-      <c r="B533" s="18"/>
+      <c r="B533" s="16"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -15730,7 +15724,7 @@
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
-      <c r="B534" s="18"/>
+      <c r="B534" s="16"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -15758,7 +15752,7 @@
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
-      <c r="B535" s="18"/>
+      <c r="B535" s="16"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -15786,7 +15780,7 @@
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
-      <c r="B536" s="18"/>
+      <c r="B536" s="16"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -15814,7 +15808,7 @@
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
-      <c r="B537" s="18"/>
+      <c r="B537" s="16"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -15842,7 +15836,7 @@
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
-      <c r="B538" s="18"/>
+      <c r="B538" s="16"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -15870,7 +15864,7 @@
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
-      <c r="B539" s="18"/>
+      <c r="B539" s="16"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -15898,7 +15892,7 @@
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
-      <c r="B540" s="18"/>
+      <c r="B540" s="16"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -15926,7 +15920,7 @@
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
-      <c r="B541" s="18"/>
+      <c r="B541" s="16"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -15954,7 +15948,7 @@
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
-      <c r="B542" s="18"/>
+      <c r="B542" s="16"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -15982,7 +15976,7 @@
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
-      <c r="B543" s="18"/>
+      <c r="B543" s="16"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -16010,7 +16004,7 @@
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
-      <c r="B544" s="18"/>
+      <c r="B544" s="16"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -16038,7 +16032,7 @@
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
-      <c r="B545" s="18"/>
+      <c r="B545" s="16"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -16066,7 +16060,7 @@
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
-      <c r="B546" s="18"/>
+      <c r="B546" s="16"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -16094,7 +16088,7 @@
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
-      <c r="B547" s="18"/>
+      <c r="B547" s="16"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -16122,7 +16116,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
-      <c r="B548" s="18"/>
+      <c r="B548" s="16"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -16150,7 +16144,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
-      <c r="B549" s="18"/>
+      <c r="B549" s="16"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -16178,7 +16172,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
-      <c r="B550" s="18"/>
+      <c r="B550" s="16"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -16206,7 +16200,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
-      <c r="B551" s="18"/>
+      <c r="B551" s="16"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -16234,7 +16228,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
-      <c r="B552" s="18"/>
+      <c r="B552" s="16"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -16262,7 +16256,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
-      <c r="B553" s="18"/>
+      <c r="B553" s="16"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -16290,7 +16284,7 @@
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
-      <c r="B554" s="18"/>
+      <c r="B554" s="16"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -16318,7 +16312,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
-      <c r="B555" s="18"/>
+      <c r="B555" s="16"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -16346,7 +16340,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
-      <c r="B556" s="18"/>
+      <c r="B556" s="16"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -16374,7 +16368,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
-      <c r="B557" s="18"/>
+      <c r="B557" s="16"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -16402,7 +16396,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
-      <c r="B558" s="18"/>
+      <c r="B558" s="16"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -16430,7 +16424,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
-      <c r="B559" s="18"/>
+      <c r="B559" s="16"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -16458,7 +16452,7 @@
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
-      <c r="B560" s="18"/>
+      <c r="B560" s="16"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -16486,7 +16480,7 @@
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
-      <c r="B561" s="18"/>
+      <c r="B561" s="16"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -16514,7 +16508,7 @@
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
-      <c r="B562" s="18"/>
+      <c r="B562" s="16"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -16542,7 +16536,7 @@
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
-      <c r="B563" s="18"/>
+      <c r="B563" s="16"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -16570,7 +16564,7 @@
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
-      <c r="B564" s="18"/>
+      <c r="B564" s="16"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -16598,7 +16592,7 @@
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
-      <c r="B565" s="18"/>
+      <c r="B565" s="16"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -16626,7 +16620,7 @@
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
-      <c r="B566" s="18"/>
+      <c r="B566" s="16"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -16654,7 +16648,7 @@
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
-      <c r="B567" s="18"/>
+      <c r="B567" s="16"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -16682,7 +16676,7 @@
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
-      <c r="B568" s="18"/>
+      <c r="B568" s="16"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -16710,7 +16704,7 @@
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
-      <c r="B569" s="18"/>
+      <c r="B569" s="16"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -16738,7 +16732,7 @@
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
-      <c r="B570" s="18"/>
+      <c r="B570" s="16"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -16766,7 +16760,7 @@
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
-      <c r="B571" s="18"/>
+      <c r="B571" s="16"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -16794,7 +16788,7 @@
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
-      <c r="B572" s="18"/>
+      <c r="B572" s="16"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -16822,7 +16816,7 @@
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
-      <c r="B573" s="18"/>
+      <c r="B573" s="16"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -16850,7 +16844,7 @@
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
-      <c r="B574" s="18"/>
+      <c r="B574" s="16"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -16878,7 +16872,7 @@
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
-      <c r="B575" s="18"/>
+      <c r="B575" s="16"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -16906,7 +16900,7 @@
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
-      <c r="B576" s="18"/>
+      <c r="B576" s="16"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -16934,7 +16928,7 @@
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
-      <c r="B577" s="18"/>
+      <c r="B577" s="16"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -16962,7 +16956,7 @@
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
-      <c r="B578" s="18"/>
+      <c r="B578" s="16"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -16990,7 +16984,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
-      <c r="B579" s="18"/>
+      <c r="B579" s="16"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -17018,7 +17012,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
-      <c r="B580" s="18"/>
+      <c r="B580" s="16"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -17046,7 +17040,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
-      <c r="B581" s="18"/>
+      <c r="B581" s="16"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -17074,7 +17068,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
-      <c r="B582" s="18"/>
+      <c r="B582" s="16"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -17102,7 +17096,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
-      <c r="B583" s="18"/>
+      <c r="B583" s="16"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -17130,7 +17124,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
-      <c r="B584" s="18"/>
+      <c r="B584" s="16"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -17158,7 +17152,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
-      <c r="B585" s="18"/>
+      <c r="B585" s="16"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -17186,7 +17180,7 @@
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
-      <c r="B586" s="18"/>
+      <c r="B586" s="16"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -17214,7 +17208,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
-      <c r="B587" s="18"/>
+      <c r="B587" s="16"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -17242,7 +17236,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
-      <c r="B588" s="18"/>
+      <c r="B588" s="16"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -17270,7 +17264,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
-      <c r="B589" s="18"/>
+      <c r="B589" s="16"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -17298,7 +17292,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
-      <c r="B590" s="18"/>
+      <c r="B590" s="16"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -17326,7 +17320,7 @@
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
-      <c r="B591" s="18"/>
+      <c r="B591" s="16"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -17354,7 +17348,7 @@
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
-      <c r="B592" s="18"/>
+      <c r="B592" s="16"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -17382,7 +17376,7 @@
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
-      <c r="B593" s="18"/>
+      <c r="B593" s="16"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -17410,7 +17404,7 @@
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
-      <c r="B594" s="18"/>
+      <c r="B594" s="16"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -17438,7 +17432,7 @@
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
-      <c r="B595" s="18"/>
+      <c r="B595" s="16"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -17466,7 +17460,7 @@
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
-      <c r="B596" s="18"/>
+      <c r="B596" s="16"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -17494,7 +17488,7 @@
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
-      <c r="B597" s="18"/>
+      <c r="B597" s="16"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -17522,7 +17516,7 @@
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
-      <c r="B598" s="18"/>
+      <c r="B598" s="16"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -17550,7 +17544,7 @@
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
-      <c r="B599" s="18"/>
+      <c r="B599" s="16"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -17578,7 +17572,7 @@
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
-      <c r="B600" s="18"/>
+      <c r="B600" s="16"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -17606,7 +17600,7 @@
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
-      <c r="B601" s="18"/>
+      <c r="B601" s="16"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -17634,7 +17628,7 @@
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
-      <c r="B602" s="18"/>
+      <c r="B602" s="16"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -17662,7 +17656,7 @@
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
-      <c r="B603" s="18"/>
+      <c r="B603" s="16"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -17690,7 +17684,7 @@
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
-      <c r="B604" s="18"/>
+      <c r="B604" s="16"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -17718,7 +17712,7 @@
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
-      <c r="B605" s="18"/>
+      <c r="B605" s="16"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -17746,7 +17740,7 @@
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
-      <c r="B606" s="18"/>
+      <c r="B606" s="16"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -17774,7 +17768,7 @@
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
-      <c r="B607" s="18"/>
+      <c r="B607" s="16"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -17802,7 +17796,7 @@
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
-      <c r="B608" s="18"/>
+      <c r="B608" s="16"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -17830,7 +17824,7 @@
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
-      <c r="B609" s="18"/>
+      <c r="B609" s="16"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -17858,7 +17852,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
-      <c r="B610" s="18"/>
+      <c r="B610" s="16"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -17886,7 +17880,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
-      <c r="B611" s="18"/>
+      <c r="B611" s="16"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -17914,7 +17908,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
-      <c r="B612" s="18"/>
+      <c r="B612" s="16"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -17942,7 +17936,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
-      <c r="B613" s="18"/>
+      <c r="B613" s="16"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -17970,7 +17964,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
-      <c r="B614" s="18"/>
+      <c r="B614" s="16"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -17998,7 +17992,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
-      <c r="B615" s="18"/>
+      <c r="B615" s="16"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -18026,7 +18020,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
-      <c r="B616" s="18"/>
+      <c r="B616" s="16"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -18054,7 +18048,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
-      <c r="B617" s="18"/>
+      <c r="B617" s="16"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -18082,7 +18076,7 @@
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
-      <c r="B618" s="18"/>
+      <c r="B618" s="16"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -18110,7 +18104,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
-      <c r="B619" s="18"/>
+      <c r="B619" s="16"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -18138,7 +18132,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
-      <c r="B620" s="18"/>
+      <c r="B620" s="16"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -18166,7 +18160,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
-      <c r="B621" s="18"/>
+      <c r="B621" s="16"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -18194,7 +18188,7 @@
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
-      <c r="B622" s="18"/>
+      <c r="B622" s="16"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18222,7 +18216,7 @@
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
-      <c r="B623" s="18"/>
+      <c r="B623" s="16"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -18250,7 +18244,7 @@
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
-      <c r="B624" s="18"/>
+      <c r="B624" s="16"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -18278,7 +18272,7 @@
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
-      <c r="B625" s="18"/>
+      <c r="B625" s="16"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -18306,7 +18300,7 @@
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
-      <c r="B626" s="18"/>
+      <c r="B626" s="16"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -18334,7 +18328,7 @@
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
-      <c r="B627" s="18"/>
+      <c r="B627" s="16"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -18362,7 +18356,7 @@
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
-      <c r="B628" s="18"/>
+      <c r="B628" s="16"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -18390,7 +18384,7 @@
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
-      <c r="B629" s="18"/>
+      <c r="B629" s="16"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -18418,7 +18412,7 @@
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
-      <c r="B630" s="18"/>
+      <c r="B630" s="16"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -18446,7 +18440,7 @@
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
-      <c r="B631" s="18"/>
+      <c r="B631" s="16"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -18474,7 +18468,7 @@
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
-      <c r="B632" s="18"/>
+      <c r="B632" s="16"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -18502,7 +18496,7 @@
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
-      <c r="B633" s="18"/>
+      <c r="B633" s="16"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -18530,7 +18524,7 @@
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
-      <c r="B634" s="18"/>
+      <c r="B634" s="16"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -18558,7 +18552,7 @@
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
-      <c r="B635" s="18"/>
+      <c r="B635" s="16"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -18586,7 +18580,7 @@
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
-      <c r="B636" s="18"/>
+      <c r="B636" s="16"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -18614,7 +18608,7 @@
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
-      <c r="B637" s="18"/>
+      <c r="B637" s="16"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -18642,7 +18636,7 @@
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
-      <c r="B638" s="18"/>
+      <c r="B638" s="16"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -18670,7 +18664,7 @@
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
-      <c r="B639" s="18"/>
+      <c r="B639" s="16"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -18698,7 +18692,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
-      <c r="B640" s="18"/>
+      <c r="B640" s="16"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -18726,7 +18720,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
-      <c r="B641" s="18"/>
+      <c r="B641" s="16"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -18754,7 +18748,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
-      <c r="B642" s="18"/>
+      <c r="B642" s="16"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -18782,7 +18776,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
-      <c r="B643" s="18"/>
+      <c r="B643" s="16"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -18810,7 +18804,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
-      <c r="B644" s="18"/>
+      <c r="B644" s="16"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -18838,7 +18832,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
-      <c r="B645" s="18"/>
+      <c r="B645" s="16"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -18866,7 +18860,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
-      <c r="B646" s="18"/>
+      <c r="B646" s="16"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -18894,7 +18888,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
-      <c r="B647" s="18"/>
+      <c r="B647" s="16"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -18922,7 +18916,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
-      <c r="B648" s="18"/>
+      <c r="B648" s="16"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -18950,7 +18944,7 @@
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
-      <c r="B649" s="18"/>
+      <c r="B649" s="16"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -18978,7 +18972,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
-      <c r="B650" s="18"/>
+      <c r="B650" s="16"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -19006,7 +19000,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
-      <c r="B651" s="18"/>
+      <c r="B651" s="16"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -19034,7 +19028,7 @@
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
-      <c r="B652" s="18"/>
+      <c r="B652" s="16"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -19062,7 +19056,7 @@
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
-      <c r="B653" s="18"/>
+      <c r="B653" s="16"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -19090,7 +19084,7 @@
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
-      <c r="B654" s="18"/>
+      <c r="B654" s="16"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -19118,7 +19112,7 @@
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
-      <c r="B655" s="18"/>
+      <c r="B655" s="16"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -19146,7 +19140,7 @@
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
-      <c r="B656" s="18"/>
+      <c r="B656" s="16"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -19174,7 +19168,7 @@
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
-      <c r="B657" s="18"/>
+      <c r="B657" s="16"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -19202,7 +19196,7 @@
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
-      <c r="B658" s="18"/>
+      <c r="B658" s="16"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -19230,7 +19224,7 @@
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
-      <c r="B659" s="18"/>
+      <c r="B659" s="16"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -19258,7 +19252,7 @@
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
-      <c r="B660" s="18"/>
+      <c r="B660" s="16"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19286,7 +19280,7 @@
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
-      <c r="B661" s="18"/>
+      <c r="B661" s="16"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -19314,7 +19308,7 @@
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
-      <c r="B662" s="18"/>
+      <c r="B662" s="16"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -19342,7 +19336,7 @@
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
-      <c r="B663" s="18"/>
+      <c r="B663" s="16"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -19370,7 +19364,7 @@
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
-      <c r="B664" s="18"/>
+      <c r="B664" s="16"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -19398,7 +19392,7 @@
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
-      <c r="B665" s="18"/>
+      <c r="B665" s="16"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -19426,7 +19420,7 @@
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
-      <c r="B666" s="18"/>
+      <c r="B666" s="16"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -19454,7 +19448,7 @@
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
-      <c r="B667" s="18"/>
+      <c r="B667" s="16"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -19482,7 +19476,7 @@
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
-      <c r="B668" s="18"/>
+      <c r="B668" s="16"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -19510,7 +19504,7 @@
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
-      <c r="B669" s="18"/>
+      <c r="B669" s="16"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -19538,7 +19532,7 @@
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
-      <c r="B670" s="18"/>
+      <c r="B670" s="16"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -19566,7 +19560,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
-      <c r="B671" s="18"/>
+      <c r="B671" s="16"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -19594,7 +19588,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
-      <c r="B672" s="18"/>
+      <c r="B672" s="16"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -19622,7 +19616,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
-      <c r="B673" s="18"/>
+      <c r="B673" s="16"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -19650,7 +19644,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
-      <c r="B674" s="18"/>
+      <c r="B674" s="16"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -19678,7 +19672,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
-      <c r="B675" s="18"/>
+      <c r="B675" s="16"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -19706,7 +19700,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
-      <c r="B676" s="18"/>
+      <c r="B676" s="16"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -19734,7 +19728,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
-      <c r="B677" s="18"/>
+      <c r="B677" s="16"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -19762,7 +19756,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
-      <c r="B678" s="18"/>
+      <c r="B678" s="16"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -19790,7 +19784,7 @@
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
-      <c r="B679" s="18"/>
+      <c r="B679" s="16"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -19818,7 +19812,7 @@
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
-      <c r="B680" s="18"/>
+      <c r="B680" s="16"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -19846,7 +19840,7 @@
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
-      <c r="B681" s="18"/>
+      <c r="B681" s="16"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -19874,7 +19868,7 @@
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
-      <c r="B682" s="18"/>
+      <c r="B682" s="16"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -19902,7 +19896,7 @@
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
-      <c r="B683" s="18"/>
+      <c r="B683" s="16"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -19930,7 +19924,7 @@
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
-      <c r="B684" s="18"/>
+      <c r="B684" s="16"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -19958,7 +19952,7 @@
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
-      <c r="B685" s="18"/>
+      <c r="B685" s="16"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -19986,7 +19980,7 @@
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
-      <c r="B686" s="18"/>
+      <c r="B686" s="16"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -20014,7 +20008,7 @@
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
-      <c r="B687" s="18"/>
+      <c r="B687" s="16"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -20042,7 +20036,7 @@
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
-      <c r="B688" s="18"/>
+      <c r="B688" s="16"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -20070,7 +20064,7 @@
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
-      <c r="B689" s="18"/>
+      <c r="B689" s="16"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -20098,7 +20092,7 @@
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
-      <c r="B690" s="18"/>
+      <c r="B690" s="16"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -20126,7 +20120,7 @@
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
-      <c r="B691" s="18"/>
+      <c r="B691" s="16"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -20154,7 +20148,7 @@
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
-      <c r="B692" s="18"/>
+      <c r="B692" s="16"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -20182,7 +20176,7 @@
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
-      <c r="B693" s="18"/>
+      <c r="B693" s="16"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -20210,7 +20204,7 @@
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
-      <c r="B694" s="18"/>
+      <c r="B694" s="16"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -20238,7 +20232,7 @@
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
-      <c r="B695" s="18"/>
+      <c r="B695" s="16"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -20266,7 +20260,7 @@
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
-      <c r="B696" s="18"/>
+      <c r="B696" s="16"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -20294,7 +20288,7 @@
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
-      <c r="B697" s="18"/>
+      <c r="B697" s="16"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -20322,7 +20316,7 @@
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
-      <c r="B698" s="18"/>
+      <c r="B698" s="16"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -20350,7 +20344,7 @@
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
-      <c r="B699" s="18"/>
+      <c r="B699" s="16"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -20378,7 +20372,7 @@
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
-      <c r="B700" s="18"/>
+      <c r="B700" s="16"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -20406,7 +20400,7 @@
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
-      <c r="B701" s="18"/>
+      <c r="B701" s="16"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -20434,7 +20428,7 @@
     </row>
     <row r="702" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
-      <c r="B702" s="18"/>
+      <c r="B702" s="16"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -20462,7 +20456,7 @@
     </row>
     <row r="703" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
-      <c r="B703" s="18"/>
+      <c r="B703" s="16"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -20490,7 +20484,7 @@
     </row>
     <row r="704" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
-      <c r="B704" s="18"/>
+      <c r="B704" s="16"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -20518,7 +20512,7 @@
     </row>
     <row r="705" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
-      <c r="B705" s="18"/>
+      <c r="B705" s="16"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -20546,7 +20540,7 @@
     </row>
     <row r="706" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
-      <c r="B706" s="18"/>
+      <c r="B706" s="16"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -20574,7 +20568,7 @@
     </row>
     <row r="707" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
-      <c r="B707" s="18"/>
+      <c r="B707" s="16"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -20602,7 +20596,7 @@
     </row>
     <row r="708" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
-      <c r="B708" s="18"/>
+      <c r="B708" s="16"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -20630,7 +20624,7 @@
     </row>
     <row r="709" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
-      <c r="B709" s="18"/>
+      <c r="B709" s="16"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -20658,7 +20652,7 @@
     </row>
     <row r="710" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
-      <c r="B710" s="18"/>
+      <c r="B710" s="16"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -20686,7 +20680,7 @@
     </row>
     <row r="711" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
-      <c r="B711" s="18"/>
+      <c r="B711" s="16"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -20714,7 +20708,7 @@
     </row>
     <row r="712" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
-      <c r="B712" s="18"/>
+      <c r="B712" s="16"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -20742,7 +20736,7 @@
     </row>
     <row r="713" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
-      <c r="B713" s="18"/>
+      <c r="B713" s="16"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -20770,7 +20764,7 @@
     </row>
     <row r="714" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
-      <c r="B714" s="18"/>
+      <c r="B714" s="16"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -20798,7 +20792,7 @@
     </row>
     <row r="715" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
-      <c r="B715" s="18"/>
+      <c r="B715" s="16"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -20826,7 +20820,7 @@
     </row>
     <row r="716" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
-      <c r="B716" s="18"/>
+      <c r="B716" s="16"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -20854,7 +20848,7 @@
     </row>
     <row r="717" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
-      <c r="B717" s="18"/>
+      <c r="B717" s="16"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -20882,7 +20876,7 @@
     </row>
     <row r="718" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
-      <c r="B718" s="18"/>
+      <c r="B718" s="16"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -20910,7 +20904,7 @@
     </row>
     <row r="719" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
-      <c r="B719" s="18"/>
+      <c r="B719" s="16"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -20938,7 +20932,7 @@
     </row>
     <row r="720" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
-      <c r="B720" s="18"/>
+      <c r="B720" s="16"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -20966,7 +20960,7 @@
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
-      <c r="B721" s="18"/>
+      <c r="B721" s="16"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -20994,7 +20988,7 @@
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
-      <c r="B722" s="18"/>
+      <c r="B722" s="16"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -21022,7 +21016,7 @@
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
-      <c r="B723" s="18"/>
+      <c r="B723" s="16"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -21050,7 +21044,7 @@
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
-      <c r="B724" s="18"/>
+      <c r="B724" s="16"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -21078,7 +21072,7 @@
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
-      <c r="B725" s="18"/>
+      <c r="B725" s="16"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -21106,7 +21100,7 @@
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
-      <c r="B726" s="18"/>
+      <c r="B726" s="16"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -21134,7 +21128,7 @@
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
-      <c r="B727" s="18"/>
+      <c r="B727" s="16"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -21162,7 +21156,7 @@
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
-      <c r="B728" s="18"/>
+      <c r="B728" s="16"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -21190,7 +21184,7 @@
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
-      <c r="B729" s="18"/>
+      <c r="B729" s="16"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -21218,7 +21212,7 @@
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
-      <c r="B730" s="18"/>
+      <c r="B730" s="16"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -21246,7 +21240,7 @@
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
-      <c r="B731" s="18"/>
+      <c r="B731" s="16"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -21274,7 +21268,7 @@
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
-      <c r="B732" s="18"/>
+      <c r="B732" s="16"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -21302,7 +21296,7 @@
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
-      <c r="B733" s="18"/>
+      <c r="B733" s="16"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -21330,7 +21324,7 @@
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
-      <c r="B734" s="18"/>
+      <c r="B734" s="16"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -21358,7 +21352,7 @@
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
-      <c r="B735" s="18"/>
+      <c r="B735" s="16"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -21386,7 +21380,7 @@
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
-      <c r="B736" s="18"/>
+      <c r="B736" s="16"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -21414,7 +21408,7 @@
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
-      <c r="B737" s="18"/>
+      <c r="B737" s="16"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -21442,7 +21436,7 @@
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
-      <c r="B738" s="18"/>
+      <c r="B738" s="16"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -21470,7 +21464,7 @@
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
-      <c r="B739" s="18"/>
+      <c r="B739" s="16"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -21498,7 +21492,7 @@
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
-      <c r="B740" s="18"/>
+      <c r="B740" s="16"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -21526,7 +21520,7 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
-      <c r="B741" s="18"/>
+      <c r="B741" s="16"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -21554,7 +21548,7 @@
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
-      <c r="B742" s="18"/>
+      <c r="B742" s="16"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -21582,7 +21576,7 @@
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
-      <c r="B743" s="18"/>
+      <c r="B743" s="16"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -21610,7 +21604,7 @@
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
-      <c r="B744" s="18"/>
+      <c r="B744" s="16"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -21638,7 +21632,7 @@
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
-      <c r="B745" s="18"/>
+      <c r="B745" s="16"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -21666,7 +21660,7 @@
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
-      <c r="B746" s="18"/>
+      <c r="B746" s="16"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -21694,7 +21688,7 @@
     </row>
     <row r="747" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
-      <c r="B747" s="18"/>
+      <c r="B747" s="16"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -21722,7 +21716,7 @@
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
-      <c r="B748" s="18"/>
+      <c r="B748" s="16"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -21750,7 +21744,7 @@
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
-      <c r="B749" s="18"/>
+      <c r="B749" s="16"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -21778,7 +21772,7 @@
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
-      <c r="B750" s="18"/>
+      <c r="B750" s="16"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -21806,7 +21800,7 @@
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
-      <c r="B751" s="18"/>
+      <c r="B751" s="16"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -21834,7 +21828,7 @@
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
-      <c r="B752" s="18"/>
+      <c r="B752" s="16"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -21862,7 +21856,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
-      <c r="B753" s="18"/>
+      <c r="B753" s="16"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -21890,7 +21884,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
-      <c r="B754" s="18"/>
+      <c r="B754" s="16"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -21918,7 +21912,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
-      <c r="B755" s="18"/>
+      <c r="B755" s="16"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -21946,7 +21940,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
-      <c r="B756" s="18"/>
+      <c r="B756" s="16"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -21974,7 +21968,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
-      <c r="B757" s="18"/>
+      <c r="B757" s="16"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -22002,7 +21996,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
-      <c r="B758" s="18"/>
+      <c r="B758" s="16"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -22030,7 +22024,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
-      <c r="B759" s="18"/>
+      <c r="B759" s="16"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -22058,7 +22052,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
-      <c r="B760" s="18"/>
+      <c r="B760" s="16"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -22086,7 +22080,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
-      <c r="B761" s="18"/>
+      <c r="B761" s="16"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -22114,7 +22108,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
-      <c r="B762" s="18"/>
+      <c r="B762" s="16"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -22142,7 +22136,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
-      <c r="B763" s="18"/>
+      <c r="B763" s="16"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -22170,7 +22164,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
-      <c r="B764" s="18"/>
+      <c r="B764" s="16"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -22198,7 +22192,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
-      <c r="B765" s="18"/>
+      <c r="B765" s="16"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -22226,7 +22220,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
-      <c r="B766" s="18"/>
+      <c r="B766" s="16"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -22254,7 +22248,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
-      <c r="B767" s="18"/>
+      <c r="B767" s="16"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -22282,7 +22276,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
-      <c r="B768" s="18"/>
+      <c r="B768" s="16"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -22310,7 +22304,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
-      <c r="B769" s="18"/>
+      <c r="B769" s="16"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -22338,7 +22332,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
-      <c r="B770" s="18"/>
+      <c r="B770" s="16"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -22366,7 +22360,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
-      <c r="B771" s="18"/>
+      <c r="B771" s="16"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -22394,7 +22388,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
-      <c r="B772" s="18"/>
+      <c r="B772" s="16"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -22422,7 +22416,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
-      <c r="B773" s="18"/>
+      <c r="B773" s="16"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -22450,7 +22444,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
-      <c r="B774" s="18"/>
+      <c r="B774" s="16"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -22478,7 +22472,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
-      <c r="B775" s="18"/>
+      <c r="B775" s="16"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -22506,7 +22500,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
-      <c r="B776" s="18"/>
+      <c r="B776" s="16"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -22534,7 +22528,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
-      <c r="B777" s="18"/>
+      <c r="B777" s="16"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -22562,7 +22556,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
-      <c r="B778" s="18"/>
+      <c r="B778" s="16"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -22590,7 +22584,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
-      <c r="B779" s="18"/>
+      <c r="B779" s="16"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -22618,7 +22612,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
-      <c r="B780" s="18"/>
+      <c r="B780" s="16"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -22646,7 +22640,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
-      <c r="B781" s="18"/>
+      <c r="B781" s="16"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -22674,7 +22668,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
-      <c r="B782" s="18"/>
+      <c r="B782" s="16"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -22702,7 +22696,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
-      <c r="B783" s="18"/>
+      <c r="B783" s="16"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -22730,7 +22724,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
-      <c r="B784" s="18"/>
+      <c r="B784" s="16"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -22758,7 +22752,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
-      <c r="B785" s="18"/>
+      <c r="B785" s="16"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -22786,7 +22780,7 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
-      <c r="B786" s="18"/>
+      <c r="B786" s="16"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -22814,7 +22808,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
-      <c r="B787" s="18"/>
+      <c r="B787" s="16"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -22842,7 +22836,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
-      <c r="B788" s="18"/>
+      <c r="B788" s="16"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -22870,7 +22864,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
-      <c r="B789" s="18"/>
+      <c r="B789" s="16"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -22898,7 +22892,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
-      <c r="B790" s="18"/>
+      <c r="B790" s="16"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -22926,7 +22920,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
-      <c r="B791" s="18"/>
+      <c r="B791" s="16"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -22954,7 +22948,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
-      <c r="B792" s="18"/>
+      <c r="B792" s="16"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -22982,7 +22976,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
-      <c r="B793" s="18"/>
+      <c r="B793" s="16"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -23010,7 +23004,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
-      <c r="B794" s="18"/>
+      <c r="B794" s="16"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -23038,7 +23032,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
-      <c r="B795" s="18"/>
+      <c r="B795" s="16"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -23066,7 +23060,7 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
-      <c r="B796" s="18"/>
+      <c r="B796" s="16"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -23094,7 +23088,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
-      <c r="B797" s="18"/>
+      <c r="B797" s="16"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -23122,7 +23116,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
-      <c r="B798" s="18"/>
+      <c r="B798" s="16"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -23150,7 +23144,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
-      <c r="B799" s="18"/>
+      <c r="B799" s="16"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -23178,7 +23172,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
-      <c r="B800" s="18"/>
+      <c r="B800" s="16"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -23206,7 +23200,7 @@
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
-      <c r="B801" s="18"/>
+      <c r="B801" s="16"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -23234,7 +23228,7 @@
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
-      <c r="B802" s="18"/>
+      <c r="B802" s="16"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -23262,7 +23256,7 @@
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
-      <c r="B803" s="18"/>
+      <c r="B803" s="16"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -23290,7 +23284,7 @@
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
-      <c r="B804" s="18"/>
+      <c r="B804" s="16"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -23318,7 +23312,7 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
-      <c r="B805" s="18"/>
+      <c r="B805" s="16"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -23346,7 +23340,7 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
-      <c r="B806" s="18"/>
+      <c r="B806" s="16"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -23374,7 +23368,7 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
-      <c r="B807" s="18"/>
+      <c r="B807" s="16"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -23402,7 +23396,7 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
-      <c r="B808" s="18"/>
+      <c r="B808" s="16"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -23430,7 +23424,7 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
-      <c r="B809" s="18"/>
+      <c r="B809" s="16"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -23458,7 +23452,7 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
-      <c r="B810" s="18"/>
+      <c r="B810" s="16"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -23486,7 +23480,7 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
-      <c r="B811" s="18"/>
+      <c r="B811" s="16"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -23514,7 +23508,7 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
-      <c r="B812" s="18"/>
+      <c r="B812" s="16"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -23542,7 +23536,7 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
-      <c r="B813" s="18"/>
+      <c r="B813" s="16"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -23570,7 +23564,7 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
-      <c r="B814" s="18"/>
+      <c r="B814" s="16"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -23598,7 +23592,7 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
-      <c r="B815" s="18"/>
+      <c r="B815" s="16"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -23626,7 +23620,7 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
-      <c r="B816" s="18"/>
+      <c r="B816" s="16"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -23654,7 +23648,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
-      <c r="B817" s="18"/>
+      <c r="B817" s="16"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -23682,7 +23676,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
-      <c r="B818" s="18"/>
+      <c r="B818" s="16"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -23710,7 +23704,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
-      <c r="B819" s="18"/>
+      <c r="B819" s="16"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -23738,7 +23732,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
-      <c r="B820" s="18"/>
+      <c r="B820" s="16"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -23766,7 +23760,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
-      <c r="B821" s="18"/>
+      <c r="B821" s="16"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -23794,7 +23788,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
-      <c r="B822" s="18"/>
+      <c r="B822" s="16"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -23822,7 +23816,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
-      <c r="B823" s="18"/>
+      <c r="B823" s="16"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -23850,7 +23844,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
-      <c r="B824" s="18"/>
+      <c r="B824" s="16"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -23878,7 +23872,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
-      <c r="B825" s="18"/>
+      <c r="B825" s="16"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -23906,7 +23900,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
-      <c r="B826" s="18"/>
+      <c r="B826" s="16"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -23934,7 +23928,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
-      <c r="B827" s="18"/>
+      <c r="B827" s="16"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -23962,7 +23956,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
-      <c r="B828" s="18"/>
+      <c r="B828" s="16"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -23990,7 +23984,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
-      <c r="B829" s="18"/>
+      <c r="B829" s="16"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -24018,7 +24012,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
-      <c r="B830" s="18"/>
+      <c r="B830" s="16"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -24046,7 +24040,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
-      <c r="B831" s="18"/>
+      <c r="B831" s="16"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -24074,7 +24068,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
-      <c r="B832" s="18"/>
+      <c r="B832" s="16"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -24102,7 +24096,7 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
-      <c r="B833" s="18"/>
+      <c r="B833" s="16"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -24130,7 +24124,7 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
-      <c r="B834" s="18"/>
+      <c r="B834" s="16"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -24158,7 +24152,7 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
-      <c r="B835" s="18"/>
+      <c r="B835" s="16"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -24186,7 +24180,7 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
-      <c r="B836" s="18"/>
+      <c r="B836" s="16"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -24214,7 +24208,7 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
-      <c r="B837" s="18"/>
+      <c r="B837" s="16"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -24242,7 +24236,7 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
-      <c r="B838" s="18"/>
+      <c r="B838" s="16"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -24270,7 +24264,7 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
-      <c r="B839" s="18"/>
+      <c r="B839" s="16"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -24298,7 +24292,7 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
-      <c r="B840" s="18"/>
+      <c r="B840" s="16"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -24326,7 +24320,7 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
-      <c r="B841" s="18"/>
+      <c r="B841" s="16"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -24354,7 +24348,7 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
-      <c r="B842" s="18"/>
+      <c r="B842" s="16"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -24382,7 +24376,7 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
-      <c r="B843" s="18"/>
+      <c r="B843" s="16"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -24410,7 +24404,7 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
-      <c r="B844" s="18"/>
+      <c r="B844" s="16"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -24438,7 +24432,7 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
-      <c r="B845" s="18"/>
+      <c r="B845" s="16"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -24466,7 +24460,7 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
-      <c r="B846" s="18"/>
+      <c r="B846" s="16"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -24494,7 +24488,7 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
-      <c r="B847" s="18"/>
+      <c r="B847" s="16"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -24522,7 +24516,7 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
-      <c r="B848" s="18"/>
+      <c r="B848" s="16"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -24550,7 +24544,7 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
-      <c r="B849" s="18"/>
+      <c r="B849" s="16"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -24578,7 +24572,7 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
-      <c r="B850" s="18"/>
+      <c r="B850" s="16"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -24606,7 +24600,7 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
-      <c r="B851" s="18"/>
+      <c r="B851" s="16"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -24634,7 +24628,7 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
-      <c r="B852" s="18"/>
+      <c r="B852" s="16"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -24662,7 +24656,7 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
-      <c r="B853" s="18"/>
+      <c r="B853" s="16"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -24690,7 +24684,7 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
-      <c r="B854" s="18"/>
+      <c r="B854" s="16"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -24718,7 +24712,7 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
-      <c r="B855" s="18"/>
+      <c r="B855" s="16"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -24746,7 +24740,7 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
-      <c r="B856" s="18"/>
+      <c r="B856" s="16"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -24774,7 +24768,7 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
-      <c r="B857" s="18"/>
+      <c r="B857" s="16"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -24802,7 +24796,7 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
-      <c r="B858" s="18"/>
+      <c r="B858" s="16"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -24830,7 +24824,7 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
-      <c r="B859" s="18"/>
+      <c r="B859" s="16"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -24858,7 +24852,7 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
-      <c r="B860" s="18"/>
+      <c r="B860" s="16"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -24886,7 +24880,7 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
-      <c r="B861" s="18"/>
+      <c r="B861" s="16"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -24914,7 +24908,7 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
-      <c r="B862" s="18"/>
+      <c r="B862" s="16"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -24942,7 +24936,7 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
-      <c r="B863" s="18"/>
+      <c r="B863" s="16"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -24970,7 +24964,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
-      <c r="B864" s="18"/>
+      <c r="B864" s="16"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -24998,7 +24992,7 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
-      <c r="B865" s="18"/>
+      <c r="B865" s="16"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -25026,7 +25020,7 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
-      <c r="B866" s="18"/>
+      <c r="B866" s="16"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -25054,7 +25048,7 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
-      <c r="B867" s="18"/>
+      <c r="B867" s="16"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -25082,7 +25076,7 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
-      <c r="B868" s="18"/>
+      <c r="B868" s="16"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -25110,7 +25104,7 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
-      <c r="B869" s="18"/>
+      <c r="B869" s="16"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -25138,7 +25132,7 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
-      <c r="B870" s="18"/>
+      <c r="B870" s="16"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -25166,7 +25160,7 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
-      <c r="B871" s="18"/>
+      <c r="B871" s="16"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -25194,7 +25188,7 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
-      <c r="B872" s="18"/>
+      <c r="B872" s="16"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -25222,7 +25216,7 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
-      <c r="B873" s="18"/>
+      <c r="B873" s="16"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -25250,7 +25244,7 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
-      <c r="B874" s="18"/>
+      <c r="B874" s="16"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -25278,7 +25272,7 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
-      <c r="B875" s="18"/>
+      <c r="B875" s="16"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -25306,7 +25300,7 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
-      <c r="B876" s="18"/>
+      <c r="B876" s="16"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -25334,7 +25328,7 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
-      <c r="B877" s="18"/>
+      <c r="B877" s="16"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -25362,7 +25356,7 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
-      <c r="B878" s="18"/>
+      <c r="B878" s="16"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -25390,7 +25384,7 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
-      <c r="B879" s="18"/>
+      <c r="B879" s="16"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -25418,7 +25412,7 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
-      <c r="B880" s="18"/>
+      <c r="B880" s="16"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -25446,7 +25440,7 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
-      <c r="B881" s="18"/>
+      <c r="B881" s="16"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -25474,7 +25468,7 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
-      <c r="B882" s="18"/>
+      <c r="B882" s="16"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -25502,7 +25496,7 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
-      <c r="B883" s="18"/>
+      <c r="B883" s="16"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -25530,7 +25524,7 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
-      <c r="B884" s="18"/>
+      <c r="B884" s="16"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -25558,7 +25552,7 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
-      <c r="B885" s="18"/>
+      <c r="B885" s="16"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -25586,7 +25580,7 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
-      <c r="B886" s="18"/>
+      <c r="B886" s="16"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -25614,7 +25608,7 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
-      <c r="B887" s="18"/>
+      <c r="B887" s="16"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -25642,7 +25636,7 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
-      <c r="B888" s="18"/>
+      <c r="B888" s="16"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -25670,7 +25664,7 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
-      <c r="B889" s="18"/>
+      <c r="B889" s="16"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -25698,7 +25692,7 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
-      <c r="B890" s="18"/>
+      <c r="B890" s="16"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -25726,7 +25720,7 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
-      <c r="B891" s="18"/>
+      <c r="B891" s="16"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -25754,7 +25748,7 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
-      <c r="B892" s="18"/>
+      <c r="B892" s="16"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -25782,7 +25776,7 @@
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
-      <c r="B893" s="18"/>
+      <c r="B893" s="16"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -25810,7 +25804,7 @@
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
-      <c r="B894" s="18"/>
+      <c r="B894" s="16"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -25838,7 +25832,7 @@
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
-      <c r="B895" s="18"/>
+      <c r="B895" s="16"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -25866,7 +25860,7 @@
     </row>
     <row r="896" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
-      <c r="B896" s="18"/>
+      <c r="B896" s="16"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -25894,7 +25888,7 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
-      <c r="B897" s="18"/>
+      <c r="B897" s="16"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -25922,7 +25916,7 @@
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
-      <c r="B898" s="18"/>
+      <c r="B898" s="16"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -25950,7 +25944,7 @@
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
-      <c r="B899" s="18"/>
+      <c r="B899" s="16"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -25978,7 +25972,7 @@
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
-      <c r="B900" s="18"/>
+      <c r="B900" s="16"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -26006,7 +26000,7 @@
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
-      <c r="B901" s="18"/>
+      <c r="B901" s="16"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -26034,7 +26028,7 @@
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
-      <c r="B902" s="18"/>
+      <c r="B902" s="16"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -26062,7 +26056,7 @@
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
-      <c r="B903" s="18"/>
+      <c r="B903" s="16"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -26090,7 +26084,7 @@
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
-      <c r="B904" s="18"/>
+      <c r="B904" s="16"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -26118,7 +26112,7 @@
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
-      <c r="B905" s="18"/>
+      <c r="B905" s="16"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -26146,7 +26140,7 @@
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
-      <c r="B906" s="18"/>
+      <c r="B906" s="16"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -26174,7 +26168,7 @@
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
-      <c r="B907" s="18"/>
+      <c r="B907" s="16"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -26202,7 +26196,7 @@
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
-      <c r="B908" s="18"/>
+      <c r="B908" s="16"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -26230,7 +26224,7 @@
     </row>
     <row r="909" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
-      <c r="B909" s="18"/>
+      <c r="B909" s="16"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -26258,7 +26252,7 @@
     </row>
     <row r="910" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
-      <c r="B910" s="18"/>
+      <c r="B910" s="16"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -26286,7 +26280,7 @@
     </row>
     <row r="911" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
-      <c r="B911" s="18"/>
+      <c r="B911" s="16"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -26314,7 +26308,7 @@
     </row>
     <row r="912" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
-      <c r="B912" s="18"/>
+      <c r="B912" s="16"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -26342,7 +26336,7 @@
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
-      <c r="B913" s="18"/>
+      <c r="B913" s="16"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -26370,7 +26364,7 @@
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
-      <c r="B914" s="18"/>
+      <c r="B914" s="16"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -26398,7 +26392,7 @@
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
-      <c r="B915" s="18"/>
+      <c r="B915" s="16"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -26426,7 +26420,7 @@
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
-      <c r="B916" s="18"/>
+      <c r="B916" s="16"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -26454,7 +26448,7 @@
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
-      <c r="B917" s="18"/>
+      <c r="B917" s="16"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -26482,7 +26476,7 @@
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
-      <c r="B918" s="18"/>
+      <c r="B918" s="16"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -26510,7 +26504,7 @@
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
-      <c r="B919" s="18"/>
+      <c r="B919" s="16"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -26538,7 +26532,7 @@
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
-      <c r="B920" s="18"/>
+      <c r="B920" s="16"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -26566,7 +26560,7 @@
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
-      <c r="B921" s="18"/>
+      <c r="B921" s="16"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -26594,7 +26588,7 @@
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
-      <c r="B922" s="18"/>
+      <c r="B922" s="16"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -26622,7 +26616,7 @@
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
-      <c r="B923" s="18"/>
+      <c r="B923" s="16"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -26650,7 +26644,7 @@
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
-      <c r="B924" s="18"/>
+      <c r="B924" s="16"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -26678,7 +26672,7 @@
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
-      <c r="B925" s="18"/>
+      <c r="B925" s="16"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -26706,7 +26700,7 @@
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
-      <c r="B926" s="18"/>
+      <c r="B926" s="16"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -26734,7 +26728,7 @@
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
-      <c r="B927" s="18"/>
+      <c r="B927" s="16"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -26762,7 +26756,7 @@
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
-      <c r="B928" s="18"/>
+      <c r="B928" s="16"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -26790,7 +26784,7 @@
     </row>
     <row r="929" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
-      <c r="B929" s="18"/>
+      <c r="B929" s="16"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -26818,7 +26812,7 @@
     </row>
     <row r="930" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
-      <c r="B930" s="18"/>
+      <c r="B930" s="16"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -26846,7 +26840,7 @@
     </row>
     <row r="931" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
-      <c r="B931" s="18"/>
+      <c r="B931" s="16"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -26874,7 +26868,7 @@
     </row>
     <row r="932" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
-      <c r="B932" s="18"/>
+      <c r="B932" s="16"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -26902,7 +26896,7 @@
     </row>
     <row r="933" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
-      <c r="B933" s="18"/>
+      <c r="B933" s="16"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -26930,7 +26924,7 @@
     </row>
     <row r="934" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
-      <c r="B934" s="18"/>
+      <c r="B934" s="16"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -26958,7 +26952,7 @@
     </row>
     <row r="935" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
-      <c r="B935" s="18"/>
+      <c r="B935" s="16"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -26986,7 +26980,7 @@
     </row>
     <row r="936" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
-      <c r="B936" s="18"/>
+      <c r="B936" s="16"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -27014,7 +27008,7 @@
     </row>
     <row r="937" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
-      <c r="B937" s="18"/>
+      <c r="B937" s="16"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -27042,7 +27036,7 @@
     </row>
     <row r="938" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
-      <c r="B938" s="18"/>
+      <c r="B938" s="16"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -27070,7 +27064,7 @@
     </row>
     <row r="939" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
-      <c r="B939" s="18"/>
+      <c r="B939" s="16"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -27098,7 +27092,7 @@
     </row>
     <row r="940" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
-      <c r="B940" s="18"/>
+      <c r="B940" s="16"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -27126,7 +27120,7 @@
     </row>
     <row r="941" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
-      <c r="B941" s="18"/>
+      <c r="B941" s="16"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -27154,7 +27148,7 @@
     </row>
     <row r="942" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
-      <c r="B942" s="18"/>
+      <c r="B942" s="16"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -27182,7 +27176,7 @@
     </row>
     <row r="943" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
-      <c r="B943" s="18"/>
+      <c r="B943" s="16"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -27210,7 +27204,7 @@
     </row>
     <row r="944" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
-      <c r="B944" s="18"/>
+      <c r="B944" s="16"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -27238,7 +27232,7 @@
     </row>
     <row r="945" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
-      <c r="B945" s="18"/>
+      <c r="B945" s="16"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -27266,7 +27260,7 @@
     </row>
     <row r="946" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
-      <c r="B946" s="18"/>
+      <c r="B946" s="16"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -27294,7 +27288,7 @@
     </row>
     <row r="947" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
-      <c r="B947" s="18"/>
+      <c r="B947" s="16"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -27322,7 +27316,7 @@
     </row>
     <row r="948" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
-      <c r="B948" s="18"/>
+      <c r="B948" s="16"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -27350,7 +27344,7 @@
     </row>
     <row r="949" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
-      <c r="B949" s="18"/>
+      <c r="B949" s="16"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -27378,7 +27372,7 @@
     </row>
     <row r="950" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
-      <c r="B950" s="18"/>
+      <c r="B950" s="16"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -27406,7 +27400,7 @@
     </row>
     <row r="951" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
-      <c r="B951" s="18"/>
+      <c r="B951" s="16"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -27434,7 +27428,7 @@
     </row>
     <row r="952" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
-      <c r="B952" s="18"/>
+      <c r="B952" s="16"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -27462,7 +27456,7 @@
     </row>
     <row r="953" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
-      <c r="B953" s="18"/>
+      <c r="B953" s="16"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -27490,7 +27484,7 @@
     </row>
     <row r="954" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
-      <c r="B954" s="18"/>
+      <c r="B954" s="16"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -27518,7 +27512,7 @@
     </row>
     <row r="955" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
-      <c r="B955" s="18"/>
+      <c r="B955" s="16"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -27546,7 +27540,7 @@
     </row>
     <row r="956" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
-      <c r="B956" s="18"/>
+      <c r="B956" s="16"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -27574,7 +27568,7 @@
     </row>
     <row r="957" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
-      <c r="B957" s="18"/>
+      <c r="B957" s="16"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -27602,7 +27596,7 @@
     </row>
     <row r="958" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
-      <c r="B958" s="18"/>
+      <c r="B958" s="16"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -27630,7 +27624,7 @@
     </row>
     <row r="959" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
-      <c r="B959" s="18"/>
+      <c r="B959" s="16"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -27658,7 +27652,7 @@
     </row>
     <row r="960" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
-      <c r="B960" s="18"/>
+      <c r="B960" s="16"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -27686,7 +27680,7 @@
     </row>
     <row r="961" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
-      <c r="B961" s="18"/>
+      <c r="B961" s="16"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -27714,7 +27708,7 @@
     </row>
     <row r="962" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
-      <c r="B962" s="18"/>
+      <c r="B962" s="16"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -27742,7 +27736,7 @@
     </row>
     <row r="963" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
-      <c r="B963" s="18"/>
+      <c r="B963" s="16"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -27770,7 +27764,7 @@
     </row>
     <row r="964" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
-      <c r="B964" s="18"/>
+      <c r="B964" s="16"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -27798,7 +27792,7 @@
     </row>
     <row r="965" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
-      <c r="B965" s="18"/>
+      <c r="B965" s="16"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -27826,7 +27820,7 @@
     </row>
     <row r="966" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
-      <c r="B966" s="18"/>
+      <c r="B966" s="16"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -27854,7 +27848,7 @@
     </row>
     <row r="967" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
-      <c r="B967" s="18"/>
+      <c r="B967" s="16"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -27882,7 +27876,7 @@
     </row>
     <row r="968" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
-      <c r="B968" s="18"/>
+      <c r="B968" s="16"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -27910,7 +27904,7 @@
     </row>
     <row r="969" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
-      <c r="B969" s="18"/>
+      <c r="B969" s="16"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -27938,7 +27932,7 @@
     </row>
     <row r="970" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
-      <c r="B970" s="18"/>
+      <c r="B970" s="16"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -27966,7 +27960,7 @@
     </row>
     <row r="971" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
-      <c r="B971" s="18"/>
+      <c r="B971" s="16"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -27994,7 +27988,7 @@
     </row>
     <row r="972" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
-      <c r="B972" s="18"/>
+      <c r="B972" s="16"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -28022,7 +28016,7 @@
     </row>
     <row r="973" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
-      <c r="B973" s="18"/>
+      <c r="B973" s="16"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -28050,7 +28044,7 @@
     </row>
     <row r="974" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
-      <c r="B974" s="18"/>
+      <c r="B974" s="16"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -28078,7 +28072,7 @@
     </row>
     <row r="975" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
-      <c r="B975" s="18"/>
+      <c r="B975" s="16"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -28106,7 +28100,7 @@
     </row>
     <row r="976" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
-      <c r="B976" s="18"/>
+      <c r="B976" s="16"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -28134,7 +28128,7 @@
     </row>
     <row r="977" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
-      <c r="B977" s="18"/>
+      <c r="B977" s="16"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -28162,7 +28156,7 @@
     </row>
     <row r="978" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
-      <c r="B978" s="18"/>
+      <c r="B978" s="16"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -28190,7 +28184,7 @@
     </row>
     <row r="979" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
-      <c r="B979" s="18"/>
+      <c r="B979" s="16"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -28218,7 +28212,7 @@
     </row>
     <row r="980" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
-      <c r="B980" s="18"/>
+      <c r="B980" s="16"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -28246,7 +28240,7 @@
     </row>
     <row r="981" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
-      <c r="B981" s="18"/>
+      <c r="B981" s="16"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -28274,7 +28268,7 @@
     </row>
     <row r="982" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
-      <c r="B982" s="18"/>
+      <c r="B982" s="16"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -28302,7 +28296,7 @@
     </row>
     <row r="983" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
-      <c r="B983" s="18"/>
+      <c r="B983" s="16"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -28330,7 +28324,7 @@
     </row>
     <row r="984" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
-      <c r="B984" s="18"/>
+      <c r="B984" s="16"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -28358,7 +28352,7 @@
     </row>
     <row r="985" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
-      <c r="B985" s="18"/>
+      <c r="B985" s="16"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -28386,7 +28380,7 @@
     </row>
     <row r="986" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
-      <c r="B986" s="18"/>
+      <c r="B986" s="16"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -28414,7 +28408,7 @@
     </row>
     <row r="987" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
-      <c r="B987" s="18"/>
+      <c r="B987" s="16"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -28442,7 +28436,7 @@
     </row>
     <row r="988" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
-      <c r="B988" s="18"/>
+      <c r="B988" s="16"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
@@ -28470,7 +28464,7 @@
     </row>
     <row r="989" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
-      <c r="B989" s="18"/>
+      <c r="B989" s="16"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
@@ -28498,7 +28492,7 @@
     </row>
     <row r="990" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
-      <c r="B990" s="18"/>
+      <c r="B990" s="16"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
@@ -28526,7 +28520,7 @@
     </row>
     <row r="991" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
-      <c r="B991" s="18"/>
+      <c r="B991" s="16"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
@@ -28554,7 +28548,7 @@
     </row>
     <row r="992" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
-      <c r="B992" s="18"/>
+      <c r="B992" s="16"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
@@ -28582,7 +28576,7 @@
     </row>
     <row r="993" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
-      <c r="B993" s="18"/>
+      <c r="B993" s="16"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
@@ -28610,7 +28604,7 @@
     </row>
     <row r="994" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
-      <c r="B994" s="18"/>
+      <c r="B994" s="16"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
@@ -28638,7 +28632,7 @@
     </row>
     <row r="995" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
-      <c r="B995" s="18"/>
+      <c r="B995" s="16"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>

--- a/Kế hoạch làm việc nhóm 26.xlsx
+++ b/Kế hoạch làm việc nhóm 26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10be73d569b19103/Máy tính/Đồ án chuyên ngành/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86FB65B5-E9A2-42B0-9E5A-E29E2A9C23D5}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1890" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Nhóm: 26</t>
   </si>
   <si>
-    <t>Ngày bắt đầu - Start time : 17/09/2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ngày kết thúc - End date: </t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>16/10/2024</t>
-  </si>
-  <si>
-    <t>16/10/2025</t>
   </si>
   <si>
     <t>23/10/2024</t>
@@ -163,12 +157,24 @@
   <si>
     <t>Chốt giao diện</t>
   </si>
+  <si>
+    <t>Bầu nhóm trưởng, chọn đề tài</t>
+  </si>
+  <si>
+    <t>17/9/2024</t>
+  </si>
+  <si>
+    <t>15/9/2024</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu - Start time : 15/09/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,6 +233,19 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,6 +349,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +568,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -625,7 +645,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -655,7 +675,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -685,7 +705,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -759,24 +779,24 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>33</v>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
+      <c r="E7" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -805,24 +825,24 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
-      <c r="E8" s="7">
-        <v>45332</v>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="F8" s="7">
-        <v>45332</v>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -851,26 +871,26 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>35</v>
+      <c r="B9" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7">
         <v>45332</v>
       </c>
-      <c r="D9" s="7">
+      <c r="F9" s="7">
         <v>45332</v>
       </c>
-      <c r="E9" s="7">
-        <v>45545</v>
-      </c>
-      <c r="F9" s="7">
-        <v>45545</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -879,42 +899,42 @@
       <c r="I9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="7">
+        <v>45332</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45332</v>
+      </c>
+      <c r="E10" s="7">
         <v>45545</v>
       </c>
-      <c r="D10" s="7">
+      <c r="F10" s="7">
         <v>45545</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
@@ -941,25 +961,26 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>24</v>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
+      <c r="C11" s="7">
+        <v>45545</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
+      <c r="D11" s="7">
+        <v>45545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -992,23 +1013,29 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1031,16 +1058,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <v>45454</v>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1064,23 +1095,26 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7">
         <v>45454</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
+      <c r="F14" s="7">
+        <v>45455</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1111,16 +1145,20 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
+      <c r="C15" s="7">
+        <v>45454</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>45455</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1151,23 +1189,23 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1186,19 +1224,19 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>12</v>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>45394</v>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="s">
@@ -1207,7 +1245,7 @@
       <c r="H17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1226,19 +1264,19 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>28</v>
+      <c r="B18" s="12" t="s">
+        <v>12</v>
       </c>
-      <c r="C18" s="7">
-        <v>45394</v>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <v>45608</v>
+        <v>45394</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="s">
@@ -1271,14 +1309,14 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7">
-        <v>45608</v>
+        <v>45394</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
+      <c r="E19" s="7">
+        <v>45608</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="s">
@@ -1310,15 +1348,15 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>27</v>
+      <c r="B20" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
+      <c r="C20" s="7">
+        <v>45608</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="s">
@@ -1327,7 +1365,7 @@
       <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1346,19 +1384,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>15</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7">
-        <v>45658</v>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
@@ -1386,15 +1424,27 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="7"/>
+    <row r="22" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="7">
+        <v>45658</v>
+      </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1528,14 +1578,14 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1556,14 +1606,14 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1696,7 +1746,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1722,7 +1772,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
@@ -1750,16 +1800,16 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+    <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6819,16 +6869,16 @@
       <c r="Z215" s="1"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
-      <c r="B216" s="16"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -6913,22 +6963,22 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
-      <c r="Q219" s="4"/>
-      <c r="R219" s="4"/>
-      <c r="S219" s="4"/>
-      <c r="T219" s="4"/>
-      <c r="U219" s="4"/>
-      <c r="V219" s="4"/>
-      <c r="W219" s="4"/>
-      <c r="X219" s="4"/>
-      <c r="Y219" s="4"/>
-      <c r="Z219" s="4"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
@@ -28659,6 +28709,16 @@
       <c r="Z995" s="4"/>
     </row>
     <row r="996" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A996" s="4"/>
+      <c r="B996" s="16"/>
+      <c r="C996" s="4"/>
+      <c r="D996" s="4"/>
+      <c r="E996" s="4"/>
+      <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
+      <c r="H996" s="4"/>
+      <c r="I996" s="4"/>
+      <c r="J996" s="4"/>
       <c r="K996" s="4"/>
       <c r="L996" s="4"/>
       <c r="M996" s="4"/>
@@ -28712,6 +28772,24 @@
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
     </row>
+    <row r="999" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K999" s="4"/>
+      <c r="L999" s="4"/>
+      <c r="M999" s="4"/>
+      <c r="N999" s="4"/>
+      <c r="O999" s="4"/>
+      <c r="P999" s="4"/>
+      <c r="Q999" s="4"/>
+      <c r="R999" s="4"/>
+      <c r="S999" s="4"/>
+      <c r="T999" s="4"/>
+      <c r="U999" s="4"/>
+      <c r="V999" s="4"/>
+      <c r="W999" s="4"/>
+      <c r="X999" s="4"/>
+      <c r="Y999" s="4"/>
+      <c r="Z999" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
@@ -28720,6 +28798,7 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Kế hoạch làm việc nhóm 26.xlsx
+++ b/Kế hoạch làm việc nhóm 26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10be73d569b19103/Máy tính/Đồ án chuyên ngành/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86FB65B5-E9A2-42B0-9E5A-E29E2A9C23D5}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5584B7FE-CEA2-4827-AE39-CC486A37DC89}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>18/12/2024</t>
-  </si>
-  <si>
-    <t>25/12/2024</t>
   </si>
   <si>
     <t>Chốt giao diện</t>
@@ -341,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,7 +347,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +568,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -584,17 +581,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -614,17 +611,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -644,17 +641,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>40</v>
+      <c r="A3" s="21" t="s">
+        <v>39</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -674,17 +671,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -704,17 +701,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -779,21 +776,21 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
@@ -1058,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
@@ -1194,11 +1191,15 @@
       <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1224,21 +1225,25 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
+      <c r="B17" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1264,12 +1269,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>12</v>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>30</v>
@@ -1308,8 +1313,8 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>26</v>
+      <c r="B19" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="7">
         <v>45394</v>
@@ -1344,12 +1349,12 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>26</v>
+      <c r="B20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="7">
         <v>45608</v>
@@ -1385,26 +1390,14 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1424,27 +1417,15 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>35</v>
-      </c>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7">
-        <v>45658</v>
-      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>

--- a/Kế hoạch làm việc nhóm 26.xlsx
+++ b/Kế hoạch làm việc nhóm 26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10be73d569b19103/Máy tính/Đồ án chuyên ngành/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5584B7FE-CEA2-4827-AE39-CC486A37DC89}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E969B6D3-DA4D-4086-96E6-385709538BA4}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="2205" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -568,7 +568,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1279,11 +1279,15 @@
       <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="7">
         <v>45394</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>45394</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
@@ -1319,11 +1323,15 @@
       <c r="C19" s="7">
         <v>45394</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>45394</v>
+      </c>
       <c r="E19" s="7">
         <v>45608</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>45608</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>10</v>
       </c>
@@ -1359,11 +1367,15 @@
       <c r="C20" s="7">
         <v>45608</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>45608</v>
+      </c>
       <c r="E20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>10</v>
       </c>

--- a/Kế hoạch làm việc nhóm 26.xlsx
+++ b/Kế hoạch làm việc nhóm 26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10be73d569b19103/Máy tính/Đồ án chuyên ngành/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E969B6D3-DA4D-4086-96E6-385709538BA4}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{8A44AF61-53AD-4C71-9043-4590C42914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C77EDC-BD28-44BD-83AB-30C8F4C5F7D1}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="2205" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,13 +202,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -244,18 +237,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -285,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,12 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,11 +319,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -568,30 +549,30 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="15" customWidth="1"/>
     <col min="3" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -611,17 +592,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -641,17 +622,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -671,17 +652,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -701,17 +682,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -734,7 +715,7 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -776,11 +757,11 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -826,7 +807,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -872,7 +853,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -918,7 +899,7 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="7">
@@ -964,7 +945,7 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7">
@@ -1009,7 +990,7 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1054,7 +1035,7 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1075,7 +1056,9 @@
       <c r="H13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1097,7 +1080,7 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1118,7 +1101,9 @@
       <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1141,7 +1126,7 @@
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="7">
@@ -1162,7 +1147,9 @@
       <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1185,7 +1172,7 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1206,7 +1193,9 @@
       <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1229,7 +1218,7 @@
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1250,7 +1239,9 @@
       <c r="H17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1273,7 +1264,7 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1294,7 +1285,9 @@
       <c r="H18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1317,7 +1310,7 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7">
@@ -1338,7 +1331,9 @@
       <c r="H19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1361,7 +1356,7 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="7">
@@ -1382,7 +1377,9 @@
       <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1403,7 +1400,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1431,7 +1428,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1459,7 +1456,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1487,7 +1484,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1515,7 +1512,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1543,7 +1540,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1599,14 +1596,14 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1627,7 +1624,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1683,7 +1680,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1711,7 +1708,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1739,7 +1736,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1795,7 +1792,7 @@
     </row>
     <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -6891,7 +6888,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -6919,7 +6916,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -6947,7 +6944,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="14"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -6975,7 +6972,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7003,7 +7000,7 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
-      <c r="B221" s="16"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7031,7 +7028,7 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
-      <c r="B222" s="16"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7059,7 +7056,7 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
-      <c r="B223" s="16"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
-      <c r="B224" s="16"/>
+      <c r="B224" s="14"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7115,7 +7112,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
-      <c r="B225" s="16"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7143,7 +7140,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
-      <c r="B226" s="16"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7171,7 +7168,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7199,7 +7196,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
-      <c r="B228" s="16"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7227,7 +7224,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="14"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7255,7 +7252,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7283,7 +7280,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7311,7 +7308,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7339,7 +7336,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="14"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7367,7 +7364,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="14"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7395,7 +7392,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="14"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7423,7 +7420,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="14"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7451,7 +7448,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
-      <c r="B237" s="16"/>
+      <c r="B237" s="14"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7479,7 +7476,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="14"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7535,7 +7532,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="14"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7563,7 +7560,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7591,7 +7588,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="14"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7647,7 +7644,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="14"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7675,7 +7672,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="14"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7703,7 +7700,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
-      <c r="B246" s="16"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7731,7 +7728,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
-      <c r="B247" s="16"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7759,7 +7756,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7787,7 +7784,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
-      <c r="B249" s="16"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7815,7 +7812,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="14"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -7843,7 +7840,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -7871,7 +7868,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
-      <c r="B252" s="16"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -7899,7 +7896,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
-      <c r="B253" s="16"/>
+      <c r="B253" s="14"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -7927,7 +7924,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="16"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -7955,7 +7952,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
-      <c r="B255" s="16"/>
+      <c r="B255" s="14"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -7983,7 +7980,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="14"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -8011,7 +8008,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
-      <c r="B257" s="16"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8039,7 +8036,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
-      <c r="B258" s="16"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8067,7 +8064,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
-      <c r="B259" s="16"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8095,7 +8092,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
-      <c r="B260" s="16"/>
+      <c r="B260" s="14"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8123,7 +8120,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
-      <c r="B261" s="16"/>
+      <c r="B261" s="14"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8151,7 +8148,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
-      <c r="B262" s="16"/>
+      <c r="B262" s="14"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8179,7 +8176,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
-      <c r="B263" s="16"/>
+      <c r="B263" s="14"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8207,7 +8204,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
-      <c r="B264" s="16"/>
+      <c r="B264" s="14"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8235,7 +8232,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
-      <c r="B265" s="16"/>
+      <c r="B265" s="14"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8263,7 +8260,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
-      <c r="B266" s="16"/>
+      <c r="B266" s="14"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8291,7 +8288,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
-      <c r="B267" s="16"/>
+      <c r="B267" s="14"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8319,7 +8316,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
-      <c r="B268" s="16"/>
+      <c r="B268" s="14"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8347,7 +8344,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
-      <c r="B269" s="16"/>
+      <c r="B269" s="14"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8375,7 +8372,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
-      <c r="B270" s="16"/>
+      <c r="B270" s="14"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8403,7 +8400,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
-      <c r="B271" s="16"/>
+      <c r="B271" s="14"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8431,7 +8428,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
-      <c r="B272" s="16"/>
+      <c r="B272" s="14"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8459,7 +8456,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
-      <c r="B273" s="16"/>
+      <c r="B273" s="14"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8487,7 +8484,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
-      <c r="B274" s="16"/>
+      <c r="B274" s="14"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8515,7 +8512,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
-      <c r="B275" s="16"/>
+      <c r="B275" s="14"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8543,7 +8540,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
-      <c r="B276" s="16"/>
+      <c r="B276" s="14"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8571,7 +8568,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
-      <c r="B277" s="16"/>
+      <c r="B277" s="14"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8599,7 +8596,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
-      <c r="B278" s="16"/>
+      <c r="B278" s="14"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8627,7 +8624,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
-      <c r="B279" s="16"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8655,7 +8652,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
-      <c r="B280" s="16"/>
+      <c r="B280" s="14"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8683,7 +8680,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
-      <c r="B281" s="16"/>
+      <c r="B281" s="14"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8711,7 +8708,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
-      <c r="B282" s="16"/>
+      <c r="B282" s="14"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8739,7 +8736,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
-      <c r="B283" s="16"/>
+      <c r="B283" s="14"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -8767,7 +8764,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
-      <c r="B284" s="16"/>
+      <c r="B284" s="14"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -8795,7 +8792,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
-      <c r="B285" s="16"/>
+      <c r="B285" s="14"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -8823,7 +8820,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
-      <c r="B286" s="16"/>
+      <c r="B286" s="14"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -8851,7 +8848,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
-      <c r="B287" s="16"/>
+      <c r="B287" s="14"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -8879,7 +8876,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
-      <c r="B288" s="16"/>
+      <c r="B288" s="14"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -8907,7 +8904,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
-      <c r="B289" s="16"/>
+      <c r="B289" s="14"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -8935,7 +8932,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
-      <c r="B290" s="16"/>
+      <c r="B290" s="14"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -8963,7 +8960,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
-      <c r="B291" s="16"/>
+      <c r="B291" s="14"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -8991,7 +8988,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
-      <c r="B292" s="16"/>
+      <c r="B292" s="14"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -9019,7 +9016,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
-      <c r="B293" s="16"/>
+      <c r="B293" s="14"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -9047,7 +9044,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
-      <c r="B294" s="16"/>
+      <c r="B294" s="14"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -9075,7 +9072,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
-      <c r="B295" s="16"/>
+      <c r="B295" s="14"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -9103,7 +9100,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
-      <c r="B296" s="16"/>
+      <c r="B296" s="14"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -9131,7 +9128,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
-      <c r="B297" s="16"/>
+      <c r="B297" s="14"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -9159,7 +9156,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
-      <c r="B298" s="16"/>
+      <c r="B298" s="14"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -9187,7 +9184,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
-      <c r="B299" s="16"/>
+      <c r="B299" s="14"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -9215,7 +9212,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
-      <c r="B300" s="16"/>
+      <c r="B300" s="14"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -9243,7 +9240,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
-      <c r="B301" s="16"/>
+      <c r="B301" s="14"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -9271,7 +9268,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
-      <c r="B302" s="16"/>
+      <c r="B302" s="14"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9299,7 +9296,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
-      <c r="B303" s="16"/>
+      <c r="B303" s="14"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9327,7 +9324,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
-      <c r="B304" s="16"/>
+      <c r="B304" s="14"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9355,7 +9352,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
-      <c r="B305" s="16"/>
+      <c r="B305" s="14"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9383,7 +9380,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
-      <c r="B306" s="16"/>
+      <c r="B306" s="14"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9411,7 +9408,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
-      <c r="B307" s="16"/>
+      <c r="B307" s="14"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9439,7 +9436,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
-      <c r="B308" s="16"/>
+      <c r="B308" s="14"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9467,7 +9464,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
-      <c r="B309" s="16"/>
+      <c r="B309" s="14"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9495,7 +9492,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
-      <c r="B310" s="16"/>
+      <c r="B310" s="14"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9523,7 +9520,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
-      <c r="B311" s="16"/>
+      <c r="B311" s="14"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9551,7 +9548,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
-      <c r="B312" s="16"/>
+      <c r="B312" s="14"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9579,7 +9576,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
-      <c r="B313" s="16"/>
+      <c r="B313" s="14"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9607,7 +9604,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
-      <c r="B314" s="16"/>
+      <c r="B314" s="14"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9635,7 +9632,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
-      <c r="B315" s="16"/>
+      <c r="B315" s="14"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9663,7 +9660,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
-      <c r="B316" s="16"/>
+      <c r="B316" s="14"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9691,7 +9688,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
-      <c r="B317" s="16"/>
+      <c r="B317" s="14"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9719,7 +9716,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
-      <c r="B318" s="16"/>
+      <c r="B318" s="14"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -9747,7 +9744,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
-      <c r="B319" s="16"/>
+      <c r="B319" s="14"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -9775,7 +9772,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
-      <c r="B320" s="16"/>
+      <c r="B320" s="14"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9803,7 +9800,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
-      <c r="B321" s="16"/>
+      <c r="B321" s="14"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -9831,7 +9828,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
-      <c r="B322" s="16"/>
+      <c r="B322" s="14"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -9859,7 +9856,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
-      <c r="B323" s="16"/>
+      <c r="B323" s="14"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -9887,7 +9884,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
-      <c r="B324" s="16"/>
+      <c r="B324" s="14"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -9915,7 +9912,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
-      <c r="B325" s="16"/>
+      <c r="B325" s="14"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -9943,7 +9940,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
-      <c r="B326" s="16"/>
+      <c r="B326" s="14"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -9971,7 +9968,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
-      <c r="B327" s="16"/>
+      <c r="B327" s="14"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -9999,7 +9996,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
-      <c r="B328" s="16"/>
+      <c r="B328" s="14"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -10027,7 +10024,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
-      <c r="B329" s="16"/>
+      <c r="B329" s="14"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -10055,7 +10052,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
-      <c r="B330" s="16"/>
+      <c r="B330" s="14"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -10083,7 +10080,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
-      <c r="B331" s="16"/>
+      <c r="B331" s="14"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -10111,7 +10108,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
-      <c r="B332" s="16"/>
+      <c r="B332" s="14"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -10139,7 +10136,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
-      <c r="B333" s="16"/>
+      <c r="B333" s="14"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -10167,7 +10164,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
-      <c r="B334" s="16"/>
+      <c r="B334" s="14"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -10195,7 +10192,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
-      <c r="B335" s="16"/>
+      <c r="B335" s="14"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -10223,7 +10220,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
-      <c r="B336" s="16"/>
+      <c r="B336" s="14"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -10251,7 +10248,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
-      <c r="B337" s="16"/>
+      <c r="B337" s="14"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -10279,7 +10276,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
-      <c r="B338" s="16"/>
+      <c r="B338" s="14"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -10307,7 +10304,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
-      <c r="B339" s="16"/>
+      <c r="B339" s="14"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -10335,7 +10332,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
-      <c r="B340" s="16"/>
+      <c r="B340" s="14"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -10363,7 +10360,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
-      <c r="B341" s="16"/>
+      <c r="B341" s="14"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -10391,7 +10388,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
-      <c r="B342" s="16"/>
+      <c r="B342" s="14"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -10419,7 +10416,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
-      <c r="B343" s="16"/>
+      <c r="B343" s="14"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -10447,7 +10444,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
-      <c r="B344" s="16"/>
+      <c r="B344" s="14"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -10475,7 +10472,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
-      <c r="B345" s="16"/>
+      <c r="B345" s="14"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -10503,7 +10500,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
-      <c r="B346" s="16"/>
+      <c r="B346" s="14"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -10531,7 +10528,7 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
-      <c r="B347" s="16"/>
+      <c r="B347" s="14"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -10559,7 +10556,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
-      <c r="B348" s="16"/>
+      <c r="B348" s="14"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10587,7 +10584,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
-      <c r="B349" s="16"/>
+      <c r="B349" s="14"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10615,7 +10612,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
-      <c r="B350" s="16"/>
+      <c r="B350" s="14"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10643,7 +10640,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
-      <c r="B351" s="16"/>
+      <c r="B351" s="14"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10671,7 +10668,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
-      <c r="B352" s="16"/>
+      <c r="B352" s="14"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10699,7 +10696,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
-      <c r="B353" s="16"/>
+      <c r="B353" s="14"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10727,7 +10724,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
-      <c r="B354" s="16"/>
+      <c r="B354" s="14"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -10755,7 +10752,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
-      <c r="B355" s="16"/>
+      <c r="B355" s="14"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -10783,7 +10780,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
-      <c r="B356" s="16"/>
+      <c r="B356" s="14"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -10811,7 +10808,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
-      <c r="B357" s="16"/>
+      <c r="B357" s="14"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -10839,7 +10836,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
-      <c r="B358" s="16"/>
+      <c r="B358" s="14"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -10867,7 +10864,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
-      <c r="B359" s="16"/>
+      <c r="B359" s="14"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -10895,7 +10892,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
-      <c r="B360" s="16"/>
+      <c r="B360" s="14"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -10923,7 +10920,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
-      <c r="B361" s="16"/>
+      <c r="B361" s="14"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -10951,7 +10948,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
-      <c r="B362" s="16"/>
+      <c r="B362" s="14"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -10979,7 +10976,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
-      <c r="B363" s="16"/>
+      <c r="B363" s="14"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
-      <c r="B364" s="16"/>
+      <c r="B364" s="14"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -11035,7 +11032,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
-      <c r="B365" s="16"/>
+      <c r="B365" s="14"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11063,7 +11060,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
-      <c r="B366" s="16"/>
+      <c r="B366" s="14"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11091,7 +11088,7 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
-      <c r="B367" s="16"/>
+      <c r="B367" s="14"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11119,7 +11116,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
-      <c r="B368" s="16"/>
+      <c r="B368" s="14"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11147,7 +11144,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
-      <c r="B369" s="16"/>
+      <c r="B369" s="14"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
-      <c r="B370" s="16"/>
+      <c r="B370" s="14"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -11203,7 +11200,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
-      <c r="B371" s="16"/>
+      <c r="B371" s="14"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -11231,7 +11228,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
-      <c r="B372" s="16"/>
+      <c r="B372" s="14"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -11259,7 +11256,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
-      <c r="B373" s="16"/>
+      <c r="B373" s="14"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -11287,7 +11284,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
-      <c r="B374" s="16"/>
+      <c r="B374" s="14"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -11315,7 +11312,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
-      <c r="B375" s="16"/>
+      <c r="B375" s="14"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -11343,7 +11340,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
-      <c r="B376" s="16"/>
+      <c r="B376" s="14"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -11371,7 +11368,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
-      <c r="B377" s="16"/>
+      <c r="B377" s="14"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -11399,7 +11396,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
-      <c r="B378" s="16"/>
+      <c r="B378" s="14"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -11427,7 +11424,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
-      <c r="B379" s="16"/>
+      <c r="B379" s="14"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -11455,7 +11452,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
-      <c r="B380" s="16"/>
+      <c r="B380" s="14"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -11483,7 +11480,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
-      <c r="B381" s="16"/>
+      <c r="B381" s="14"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -11511,7 +11508,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
-      <c r="B382" s="16"/>
+      <c r="B382" s="14"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -11539,7 +11536,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
-      <c r="B383" s="16"/>
+      <c r="B383" s="14"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -11567,7 +11564,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
-      <c r="B384" s="16"/>
+      <c r="B384" s="14"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -11595,7 +11592,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
-      <c r="B385" s="16"/>
+      <c r="B385" s="14"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -11623,7 +11620,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
-      <c r="B386" s="16"/>
+      <c r="B386" s="14"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -11651,7 +11648,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
-      <c r="B387" s="16"/>
+      <c r="B387" s="14"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -11679,7 +11676,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
-      <c r="B388" s="16"/>
+      <c r="B388" s="14"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -11707,7 +11704,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
-      <c r="B389" s="16"/>
+      <c r="B389" s="14"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -11735,7 +11732,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
-      <c r="B390" s="16"/>
+      <c r="B390" s="14"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -11763,7 +11760,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
-      <c r="B391" s="16"/>
+      <c r="B391" s="14"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -11791,7 +11788,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
-      <c r="B392" s="16"/>
+      <c r="B392" s="14"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -11819,7 +11816,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
-      <c r="B393" s="16"/>
+      <c r="B393" s="14"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -11847,7 +11844,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
-      <c r="B394" s="16"/>
+      <c r="B394" s="14"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -11875,7 +11872,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
-      <c r="B395" s="16"/>
+      <c r="B395" s="14"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -11903,7 +11900,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
-      <c r="B396" s="16"/>
+      <c r="B396" s="14"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -11931,7 +11928,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
-      <c r="B397" s="16"/>
+      <c r="B397" s="14"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -11959,7 +11956,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
-      <c r="B398" s="16"/>
+      <c r="B398" s="14"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -11987,7 +11984,7 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
-      <c r="B399" s="16"/>
+      <c r="B399" s="14"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -12015,7 +12012,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
-      <c r="B400" s="16"/>
+      <c r="B400" s="14"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12043,7 +12040,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
-      <c r="B401" s="16"/>
+      <c r="B401" s="14"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12071,7 +12068,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
-      <c r="B402" s="16"/>
+      <c r="B402" s="14"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12099,7 +12096,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
-      <c r="B403" s="16"/>
+      <c r="B403" s="14"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12127,7 +12124,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
-      <c r="B404" s="16"/>
+      <c r="B404" s="14"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12155,7 +12152,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
-      <c r="B405" s="16"/>
+      <c r="B405" s="14"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12183,7 +12180,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
-      <c r="B406" s="16"/>
+      <c r="B406" s="14"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12211,7 +12208,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
-      <c r="B407" s="16"/>
+      <c r="B407" s="14"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12239,7 +12236,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
-      <c r="B408" s="16"/>
+      <c r="B408" s="14"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12267,7 +12264,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
-      <c r="B409" s="16"/>
+      <c r="B409" s="14"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12295,7 +12292,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
-      <c r="B410" s="16"/>
+      <c r="B410" s="14"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12323,7 +12320,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
-      <c r="B411" s="16"/>
+      <c r="B411" s="14"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12351,7 +12348,7 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
-      <c r="B412" s="16"/>
+      <c r="B412" s="14"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12379,7 +12376,7 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
-      <c r="B413" s="16"/>
+      <c r="B413" s="14"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12407,7 +12404,7 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
-      <c r="B414" s="16"/>
+      <c r="B414" s="14"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12435,7 +12432,7 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
-      <c r="B415" s="16"/>
+      <c r="B415" s="14"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -12463,7 +12460,7 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
-      <c r="B416" s="16"/>
+      <c r="B416" s="14"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -12491,7 +12488,7 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
-      <c r="B417" s="16"/>
+      <c r="B417" s="14"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -12519,7 +12516,7 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
-      <c r="B418" s="16"/>
+      <c r="B418" s="14"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -12547,7 +12544,7 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
-      <c r="B419" s="16"/>
+      <c r="B419" s="14"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -12575,7 +12572,7 @@
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
-      <c r="B420" s="16"/>
+      <c r="B420" s="14"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -12603,7 +12600,7 @@
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
-      <c r="B421" s="16"/>
+      <c r="B421" s="14"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -12631,7 +12628,7 @@
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
-      <c r="B422" s="16"/>
+      <c r="B422" s="14"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -12659,7 +12656,7 @@
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
-      <c r="B423" s="16"/>
+      <c r="B423" s="14"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -12687,7 +12684,7 @@
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
-      <c r="B424" s="16"/>
+      <c r="B424" s="14"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -12715,7 +12712,7 @@
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
-      <c r="B425" s="16"/>
+      <c r="B425" s="14"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -12743,7 +12740,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
-      <c r="B426" s="16"/>
+      <c r="B426" s="14"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -12771,7 +12768,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
-      <c r="B427" s="16"/>
+      <c r="B427" s="14"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -12799,7 +12796,7 @@
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
-      <c r="B428" s="16"/>
+      <c r="B428" s="14"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -12827,7 +12824,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
-      <c r="B429" s="16"/>
+      <c r="B429" s="14"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -12855,7 +12852,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
-      <c r="B430" s="16"/>
+      <c r="B430" s="14"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -12883,7 +12880,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
-      <c r="B431" s="16"/>
+      <c r="B431" s="14"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -12911,7 +12908,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
-      <c r="B432" s="16"/>
+      <c r="B432" s="14"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -12939,7 +12936,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
-      <c r="B433" s="16"/>
+      <c r="B433" s="14"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -12967,7 +12964,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
-      <c r="B434" s="16"/>
+      <c r="B434" s="14"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -12995,7 +12992,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
-      <c r="B435" s="16"/>
+      <c r="B435" s="14"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -13023,7 +13020,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
-      <c r="B436" s="16"/>
+      <c r="B436" s="14"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13051,7 +13048,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
-      <c r="B437" s="16"/>
+      <c r="B437" s="14"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13079,7 +13076,7 @@
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
-      <c r="B438" s="16"/>
+      <c r="B438" s="14"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13107,7 +13104,7 @@
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
-      <c r="B439" s="16"/>
+      <c r="B439" s="14"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13135,7 +13132,7 @@
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
-      <c r="B440" s="16"/>
+      <c r="B440" s="14"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13163,7 +13160,7 @@
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
-      <c r="B441" s="16"/>
+      <c r="B441" s="14"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13191,7 +13188,7 @@
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
-      <c r="B442" s="16"/>
+      <c r="B442" s="14"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13219,7 +13216,7 @@
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
-      <c r="B443" s="16"/>
+      <c r="B443" s="14"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13247,7 +13244,7 @@
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
-      <c r="B444" s="16"/>
+      <c r="B444" s="14"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13275,7 +13272,7 @@
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
-      <c r="B445" s="16"/>
+      <c r="B445" s="14"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13303,7 +13300,7 @@
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
-      <c r="B446" s="16"/>
+      <c r="B446" s="14"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13331,7 +13328,7 @@
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
-      <c r="B447" s="16"/>
+      <c r="B447" s="14"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13359,7 +13356,7 @@
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
-      <c r="B448" s="16"/>
+      <c r="B448" s="14"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13387,7 +13384,7 @@
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
-      <c r="B449" s="16"/>
+      <c r="B449" s="14"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13415,7 +13412,7 @@
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
-      <c r="B450" s="16"/>
+      <c r="B450" s="14"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13443,7 +13440,7 @@
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
-      <c r="B451" s="16"/>
+      <c r="B451" s="14"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13471,7 +13468,7 @@
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
-      <c r="B452" s="16"/>
+      <c r="B452" s="14"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13499,7 +13496,7 @@
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
-      <c r="B453" s="16"/>
+      <c r="B453" s="14"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13527,7 +13524,7 @@
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
-      <c r="B454" s="16"/>
+      <c r="B454" s="14"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13555,7 +13552,7 @@
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
-      <c r="B455" s="16"/>
+      <c r="B455" s="14"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13583,7 +13580,7 @@
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
-      <c r="B456" s="16"/>
+      <c r="B456" s="14"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13611,7 +13608,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
-      <c r="B457" s="16"/>
+      <c r="B457" s="14"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13639,7 +13636,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
-      <c r="B458" s="16"/>
+      <c r="B458" s="14"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13667,7 +13664,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
-      <c r="B459" s="16"/>
+      <c r="B459" s="14"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13695,7 +13692,7 @@
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
-      <c r="B460" s="16"/>
+      <c r="B460" s="14"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13723,7 +13720,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
-      <c r="B461" s="16"/>
+      <c r="B461" s="14"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -13751,7 +13748,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
-      <c r="B462" s="16"/>
+      <c r="B462" s="14"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -13779,7 +13776,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
-      <c r="B463" s="16"/>
+      <c r="B463" s="14"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -13807,7 +13804,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
-      <c r="B464" s="16"/>
+      <c r="B464" s="14"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -13835,7 +13832,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
-      <c r="B465" s="16"/>
+      <c r="B465" s="14"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -13863,7 +13860,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
-      <c r="B466" s="16"/>
+      <c r="B466" s="14"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -13891,7 +13888,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
-      <c r="B467" s="16"/>
+      <c r="B467" s="14"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -13919,7 +13916,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
-      <c r="B468" s="16"/>
+      <c r="B468" s="14"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -13947,7 +13944,7 @@
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
-      <c r="B469" s="16"/>
+      <c r="B469" s="14"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -13975,7 +13972,7 @@
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
-      <c r="B470" s="16"/>
+      <c r="B470" s="14"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -14003,7 +14000,7 @@
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
-      <c r="B471" s="16"/>
+      <c r="B471" s="14"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -14031,7 +14028,7 @@
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
-      <c r="B472" s="16"/>
+      <c r="B472" s="14"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14059,7 +14056,7 @@
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
-      <c r="B473" s="16"/>
+      <c r="B473" s="14"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14087,7 +14084,7 @@
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
-      <c r="B474" s="16"/>
+      <c r="B474" s="14"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14115,7 +14112,7 @@
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
-      <c r="B475" s="16"/>
+      <c r="B475" s="14"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14143,7 +14140,7 @@
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
-      <c r="B476" s="16"/>
+      <c r="B476" s="14"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14171,7 +14168,7 @@
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
-      <c r="B477" s="16"/>
+      <c r="B477" s="14"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14199,7 +14196,7 @@
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
-      <c r="B478" s="16"/>
+      <c r="B478" s="14"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14227,7 +14224,7 @@
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
-      <c r="B479" s="16"/>
+      <c r="B479" s="14"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14255,7 +14252,7 @@
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
-      <c r="B480" s="16"/>
+      <c r="B480" s="14"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14283,7 +14280,7 @@
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
-      <c r="B481" s="16"/>
+      <c r="B481" s="14"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14311,7 +14308,7 @@
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
-      <c r="B482" s="16"/>
+      <c r="B482" s="14"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14339,7 +14336,7 @@
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
-      <c r="B483" s="16"/>
+      <c r="B483" s="14"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14367,7 +14364,7 @@
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
-      <c r="B484" s="16"/>
+      <c r="B484" s="14"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14395,7 +14392,7 @@
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
-      <c r="B485" s="16"/>
+      <c r="B485" s="14"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14423,7 +14420,7 @@
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
-      <c r="B486" s="16"/>
+      <c r="B486" s="14"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14451,7 +14448,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
-      <c r="B487" s="16"/>
+      <c r="B487" s="14"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14479,7 +14476,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
-      <c r="B488" s="16"/>
+      <c r="B488" s="14"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14507,7 +14504,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
-      <c r="B489" s="16"/>
+      <c r="B489" s="14"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14535,7 +14532,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
-      <c r="B490" s="16"/>
+      <c r="B490" s="14"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14563,7 +14560,7 @@
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
-      <c r="B491" s="16"/>
+      <c r="B491" s="14"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14591,7 +14588,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
-      <c r="B492" s="16"/>
+      <c r="B492" s="14"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14619,7 +14616,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
-      <c r="B493" s="16"/>
+      <c r="B493" s="14"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14647,7 +14644,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
-      <c r="B494" s="16"/>
+      <c r="B494" s="14"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14675,7 +14672,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
-      <c r="B495" s="16"/>
+      <c r="B495" s="14"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14703,7 +14700,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
-      <c r="B496" s="16"/>
+      <c r="B496" s="14"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14731,7 +14728,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
-      <c r="B497" s="16"/>
+      <c r="B497" s="14"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -14759,7 +14756,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
-      <c r="B498" s="16"/>
+      <c r="B498" s="14"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -14787,7 +14784,7 @@
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
-      <c r="B499" s="16"/>
+      <c r="B499" s="14"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -14815,7 +14812,7 @@
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
-      <c r="B500" s="16"/>
+      <c r="B500" s="14"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -14843,7 +14840,7 @@
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
-      <c r="B501" s="16"/>
+      <c r="B501" s="14"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -14871,7 +14868,7 @@
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
-      <c r="B502" s="16"/>
+      <c r="B502" s="14"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -14899,7 +14896,7 @@
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
-      <c r="B503" s="16"/>
+      <c r="B503" s="14"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -14927,7 +14924,7 @@
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
-      <c r="B504" s="16"/>
+      <c r="B504" s="14"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -14955,7 +14952,7 @@
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
-      <c r="B505" s="16"/>
+      <c r="B505" s="14"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -14983,7 +14980,7 @@
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
-      <c r="B506" s="16"/>
+      <c r="B506" s="14"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -15011,7 +15008,7 @@
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
-      <c r="B507" s="16"/>
+      <c r="B507" s="14"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15039,7 +15036,7 @@
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
-      <c r="B508" s="16"/>
+      <c r="B508" s="14"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15067,7 +15064,7 @@
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
-      <c r="B509" s="16"/>
+      <c r="B509" s="14"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15095,7 +15092,7 @@
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
-      <c r="B510" s="16"/>
+      <c r="B510" s="14"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15123,7 +15120,7 @@
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
-      <c r="B511" s="16"/>
+      <c r="B511" s="14"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15151,7 +15148,7 @@
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
-      <c r="B512" s="16"/>
+      <c r="B512" s="14"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15179,7 +15176,7 @@
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
-      <c r="B513" s="16"/>
+      <c r="B513" s="14"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15207,7 +15204,7 @@
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
-      <c r="B514" s="16"/>
+      <c r="B514" s="14"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15235,7 +15232,7 @@
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
-      <c r="B515" s="16"/>
+      <c r="B515" s="14"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15263,7 +15260,7 @@
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
-      <c r="B516" s="16"/>
+      <c r="B516" s="14"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15291,7 +15288,7 @@
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
-      <c r="B517" s="16"/>
+      <c r="B517" s="14"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15319,7 +15316,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
-      <c r="B518" s="16"/>
+      <c r="B518" s="14"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15347,7 +15344,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
-      <c r="B519" s="16"/>
+      <c r="B519" s="14"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15375,7 +15372,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
-      <c r="B520" s="16"/>
+      <c r="B520" s="14"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15403,7 +15400,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
-      <c r="B521" s="16"/>
+      <c r="B521" s="14"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15431,7 +15428,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
-      <c r="B522" s="16"/>
+      <c r="B522" s="14"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15459,7 +15456,7 @@
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
-      <c r="B523" s="16"/>
+      <c r="B523" s="14"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15487,7 +15484,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
-      <c r="B524" s="16"/>
+      <c r="B524" s="14"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15515,7 +15512,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
-      <c r="B525" s="16"/>
+      <c r="B525" s="14"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15543,7 +15540,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
-      <c r="B526" s="16"/>
+      <c r="B526" s="14"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15571,7 +15568,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
-      <c r="B527" s="16"/>
+      <c r="B527" s="14"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15599,7 +15596,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
-      <c r="B528" s="16"/>
+      <c r="B528" s="14"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15627,7 +15624,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
-      <c r="B529" s="16"/>
+      <c r="B529" s="14"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15655,7 +15652,7 @@
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
-      <c r="B530" s="16"/>
+      <c r="B530" s="14"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15683,7 +15680,7 @@
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
-      <c r="B531" s="16"/>
+      <c r="B531" s="14"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15711,7 +15708,7 @@
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
-      <c r="B532" s="16"/>
+      <c r="B532" s="14"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15739,7 +15736,7 @@
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
-      <c r="B533" s="16"/>
+      <c r="B533" s="14"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -15767,7 +15764,7 @@
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
-      <c r="B534" s="16"/>
+      <c r="B534" s="14"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -15795,7 +15792,7 @@
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
-      <c r="B535" s="16"/>
+      <c r="B535" s="14"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -15823,7 +15820,7 @@
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
-      <c r="B536" s="16"/>
+      <c r="B536" s="14"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -15851,7 +15848,7 @@
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
-      <c r="B537" s="16"/>
+      <c r="B537" s="14"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -15879,7 +15876,7 @@
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
-      <c r="B538" s="16"/>
+      <c r="B538" s="14"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -15907,7 +15904,7 @@
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
-      <c r="B539" s="16"/>
+      <c r="B539" s="14"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -15935,7 +15932,7 @@
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
-      <c r="B540" s="16"/>
+      <c r="B540" s="14"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -15963,7 +15960,7 @@
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
-      <c r="B541" s="16"/>
+      <c r="B541" s="14"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -15991,7 +15988,7 @@
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
-      <c r="B542" s="16"/>
+      <c r="B542" s="14"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -16019,7 +16016,7 @@
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
-      <c r="B543" s="16"/>
+      <c r="B543" s="14"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -16047,7 +16044,7 @@
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
-      <c r="B544" s="16"/>
+      <c r="B544" s="14"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -16075,7 +16072,7 @@
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
-      <c r="B545" s="16"/>
+      <c r="B545" s="14"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -16103,7 +16100,7 @@
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
-      <c r="B546" s="16"/>
+      <c r="B546" s="14"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -16131,7 +16128,7 @@
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
-      <c r="B547" s="16"/>
+      <c r="B547" s="14"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -16159,7 +16156,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
-      <c r="B548" s="16"/>
+      <c r="B548" s="14"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -16187,7 +16184,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
-      <c r="B549" s="16"/>
+      <c r="B549" s="14"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -16215,7 +16212,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
-      <c r="B550" s="16"/>
+      <c r="B550" s="14"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -16243,7 +16240,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
-      <c r="B551" s="16"/>
+      <c r="B551" s="14"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -16271,7 +16268,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
-      <c r="B552" s="16"/>
+      <c r="B552" s="14"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -16299,7 +16296,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
-      <c r="B553" s="16"/>
+      <c r="B553" s="14"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -16327,7 +16324,7 @@
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
-      <c r="B554" s="16"/>
+      <c r="B554" s="14"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -16355,7 +16352,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
-      <c r="B555" s="16"/>
+      <c r="B555" s="14"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -16383,7 +16380,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
-      <c r="B556" s="16"/>
+      <c r="B556" s="14"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -16411,7 +16408,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
-      <c r="B557" s="16"/>
+      <c r="B557" s="14"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -16439,7 +16436,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
-      <c r="B558" s="16"/>
+      <c r="B558" s="14"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -16467,7 +16464,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
-      <c r="B559" s="16"/>
+      <c r="B559" s="14"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -16495,7 +16492,7 @@
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
-      <c r="B560" s="16"/>
+      <c r="B560" s="14"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -16523,7 +16520,7 @@
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
-      <c r="B561" s="16"/>
+      <c r="B561" s="14"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -16551,7 +16548,7 @@
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
-      <c r="B562" s="16"/>
+      <c r="B562" s="14"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -16579,7 +16576,7 @@
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
-      <c r="B563" s="16"/>
+      <c r="B563" s="14"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -16607,7 +16604,7 @@
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
-      <c r="B564" s="16"/>
+      <c r="B564" s="14"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -16635,7 +16632,7 @@
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
-      <c r="B565" s="16"/>
+      <c r="B565" s="14"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -16663,7 +16660,7 @@
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
-      <c r="B566" s="16"/>
+      <c r="B566" s="14"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -16691,7 +16688,7 @@
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
-      <c r="B567" s="16"/>
+      <c r="B567" s="14"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -16719,7 +16716,7 @@
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
-      <c r="B568" s="16"/>
+      <c r="B568" s="14"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -16747,7 +16744,7 @@
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
-      <c r="B569" s="16"/>
+      <c r="B569" s="14"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -16775,7 +16772,7 @@
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
-      <c r="B570" s="16"/>
+      <c r="B570" s="14"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -16803,7 +16800,7 @@
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
-      <c r="B571" s="16"/>
+      <c r="B571" s="14"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -16831,7 +16828,7 @@
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
-      <c r="B572" s="16"/>
+      <c r="B572" s="14"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -16859,7 +16856,7 @@
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
-      <c r="B573" s="16"/>
+      <c r="B573" s="14"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -16887,7 +16884,7 @@
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
-      <c r="B574" s="16"/>
+      <c r="B574" s="14"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -16915,7 +16912,7 @@
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
-      <c r="B575" s="16"/>
+      <c r="B575" s="14"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -16943,7 +16940,7 @@
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
-      <c r="B576" s="16"/>
+      <c r="B576" s="14"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -16971,7 +16968,7 @@
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
-      <c r="B577" s="16"/>
+      <c r="B577" s="14"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -16999,7 +16996,7 @@
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
-      <c r="B578" s="16"/>
+      <c r="B578" s="14"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -17027,7 +17024,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
-      <c r="B579" s="16"/>
+      <c r="B579" s="14"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -17055,7 +17052,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
-      <c r="B580" s="16"/>
+      <c r="B580" s="14"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -17083,7 +17080,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
-      <c r="B581" s="16"/>
+      <c r="B581" s="14"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -17111,7 +17108,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
-      <c r="B582" s="16"/>
+      <c r="B582" s="14"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -17139,7 +17136,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
-      <c r="B583" s="16"/>
+      <c r="B583" s="14"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -17167,7 +17164,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
-      <c r="B584" s="16"/>
+      <c r="B584" s="14"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -17195,7 +17192,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
-      <c r="B585" s="16"/>
+      <c r="B585" s="14"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -17223,7 +17220,7 @@
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
-      <c r="B586" s="16"/>
+      <c r="B586" s="14"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -17251,7 +17248,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
-      <c r="B587" s="16"/>
+      <c r="B587" s="14"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -17279,7 +17276,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
-      <c r="B588" s="16"/>
+      <c r="B588" s="14"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -17307,7 +17304,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
-      <c r="B589" s="16"/>
+      <c r="B589" s="14"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -17335,7 +17332,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
-      <c r="B590" s="16"/>
+      <c r="B590" s="14"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -17363,7 +17360,7 @@
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
-      <c r="B591" s="16"/>
+      <c r="B591" s="14"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -17391,7 +17388,7 @@
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
-      <c r="B592" s="16"/>
+      <c r="B592" s="14"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -17419,7 +17416,7 @@
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
-      <c r="B593" s="16"/>
+      <c r="B593" s="14"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -17447,7 +17444,7 @@
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
-      <c r="B594" s="16"/>
+      <c r="B594" s="14"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -17475,7 +17472,7 @@
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
-      <c r="B595" s="16"/>
+      <c r="B595" s="14"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -17503,7 +17500,7 @@
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
-      <c r="B596" s="16"/>
+      <c r="B596" s="14"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -17531,7 +17528,7 @@
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
-      <c r="B597" s="16"/>
+      <c r="B597" s="14"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -17559,7 +17556,7 @@
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
-      <c r="B598" s="16"/>
+      <c r="B598" s="14"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -17587,7 +17584,7 @@
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
-      <c r="B599" s="16"/>
+      <c r="B599" s="14"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -17615,7 +17612,7 @@
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
-      <c r="B600" s="16"/>
+      <c r="B600" s="14"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -17643,7 +17640,7 @@
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
-      <c r="B601" s="16"/>
+      <c r="B601" s="14"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -17671,7 +17668,7 @@
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
-      <c r="B602" s="16"/>
+      <c r="B602" s="14"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -17699,7 +17696,7 @@
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
-      <c r="B603" s="16"/>
+      <c r="B603" s="14"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -17727,7 +17724,7 @@
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
-      <c r="B604" s="16"/>
+      <c r="B604" s="14"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -17755,7 +17752,7 @@
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
-      <c r="B605" s="16"/>
+      <c r="B605" s="14"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -17783,7 +17780,7 @@
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
-      <c r="B606" s="16"/>
+      <c r="B606" s="14"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -17811,7 +17808,7 @@
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
-      <c r="B607" s="16"/>
+      <c r="B607" s="14"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -17839,7 +17836,7 @@
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
-      <c r="B608" s="16"/>
+      <c r="B608" s="14"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -17867,7 +17864,7 @@
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
-      <c r="B609" s="16"/>
+      <c r="B609" s="14"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -17895,7 +17892,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
-      <c r="B610" s="16"/>
+      <c r="B610" s="14"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -17923,7 +17920,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
-      <c r="B611" s="16"/>
+      <c r="B611" s="14"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -17951,7 +17948,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
-      <c r="B612" s="16"/>
+      <c r="B612" s="14"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -17979,7 +17976,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
-      <c r="B613" s="16"/>
+      <c r="B613" s="14"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -18007,7 +18004,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
-      <c r="B614" s="16"/>
+      <c r="B614" s="14"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -18035,7 +18032,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
-      <c r="B615" s="16"/>
+      <c r="B615" s="14"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -18063,7 +18060,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
-      <c r="B616" s="16"/>
+      <c r="B616" s="14"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -18091,7 +18088,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
-      <c r="B617" s="16"/>
+      <c r="B617" s="14"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -18119,7 +18116,7 @@
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
-      <c r="B618" s="16"/>
+      <c r="B618" s="14"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -18147,7 +18144,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
-      <c r="B619" s="16"/>
+      <c r="B619" s="14"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -18175,7 +18172,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
-      <c r="B620" s="16"/>
+      <c r="B620" s="14"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -18203,7 +18200,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
-      <c r="B621" s="16"/>
+      <c r="B621" s="14"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -18231,7 +18228,7 @@
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
-      <c r="B622" s="16"/>
+      <c r="B622" s="14"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18259,7 +18256,7 @@
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
-      <c r="B623" s="16"/>
+      <c r="B623" s="14"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -18287,7 +18284,7 @@
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
-      <c r="B624" s="16"/>
+      <c r="B624" s="14"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -18315,7 +18312,7 @@
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
-      <c r="B625" s="16"/>
+      <c r="B625" s="14"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -18343,7 +18340,7 @@
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
-      <c r="B626" s="16"/>
+      <c r="B626" s="14"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -18371,7 +18368,7 @@
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
-      <c r="B627" s="16"/>
+      <c r="B627" s="14"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -18399,7 +18396,7 @@
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
-      <c r="B628" s="16"/>
+      <c r="B628" s="14"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -18427,7 +18424,7 @@
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
-      <c r="B629" s="16"/>
+      <c r="B629" s="14"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -18455,7 +18452,7 @@
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
-      <c r="B630" s="16"/>
+      <c r="B630" s="14"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -18483,7 +18480,7 @@
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
-      <c r="B631" s="16"/>
+      <c r="B631" s="14"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -18511,7 +18508,7 @@
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
-      <c r="B632" s="16"/>
+      <c r="B632" s="14"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -18539,7 +18536,7 @@
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
-      <c r="B633" s="16"/>
+      <c r="B633" s="14"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -18567,7 +18564,7 @@
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
-      <c r="B634" s="16"/>
+      <c r="B634" s="14"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -18595,7 +18592,7 @@
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
-      <c r="B635" s="16"/>
+      <c r="B635" s="14"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -18623,7 +18620,7 @@
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
-      <c r="B636" s="16"/>
+      <c r="B636" s="14"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -18651,7 +18648,7 @@
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
-      <c r="B637" s="16"/>
+      <c r="B637" s="14"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -18679,7 +18676,7 @@
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
-      <c r="B638" s="16"/>
+      <c r="B638" s="14"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -18707,7 +18704,7 @@
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
-      <c r="B639" s="16"/>
+      <c r="B639" s="14"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -18735,7 +18732,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
-      <c r="B640" s="16"/>
+      <c r="B640" s="14"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -18763,7 +18760,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
-      <c r="B641" s="16"/>
+      <c r="B641" s="14"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -18791,7 +18788,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
-      <c r="B642" s="16"/>
+      <c r="B642" s="14"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -18819,7 +18816,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
-      <c r="B643" s="16"/>
+      <c r="B643" s="14"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -18847,7 +18844,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
-      <c r="B644" s="16"/>
+      <c r="B644" s="14"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -18875,7 +18872,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
-      <c r="B645" s="16"/>
+      <c r="B645" s="14"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -18903,7 +18900,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
-      <c r="B646" s="16"/>
+      <c r="B646" s="14"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -18931,7 +18928,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
-      <c r="B647" s="16"/>
+      <c r="B647" s="14"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -18959,7 +18956,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
-      <c r="B648" s="16"/>
+      <c r="B648" s="14"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -18987,7 +18984,7 @@
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
-      <c r="B649" s="16"/>
+      <c r="B649" s="14"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -19015,7 +19012,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
-      <c r="B650" s="16"/>
+      <c r="B650" s="14"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -19043,7 +19040,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
-      <c r="B651" s="16"/>
+      <c r="B651" s="14"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -19071,7 +19068,7 @@
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
-      <c r="B652" s="16"/>
+      <c r="B652" s="14"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -19099,7 +19096,7 @@
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
-      <c r="B653" s="16"/>
+      <c r="B653" s="14"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -19127,7 +19124,7 @@
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
-      <c r="B654" s="16"/>
+      <c r="B654" s="14"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -19155,7 +19152,7 @@
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
-      <c r="B655" s="16"/>
+      <c r="B655" s="14"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -19183,7 +19180,7 @@
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
-      <c r="B656" s="16"/>
+      <c r="B656" s="14"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -19211,7 +19208,7 @@
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
-      <c r="B657" s="16"/>
+      <c r="B657" s="14"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -19239,7 +19236,7 @@
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
-      <c r="B658" s="16"/>
+      <c r="B658" s="14"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -19267,7 +19264,7 @@
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
-      <c r="B659" s="16"/>
+      <c r="B659" s="14"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -19295,7 +19292,7 @@
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
-      <c r="B660" s="16"/>
+      <c r="B660" s="14"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19323,7 +19320,7 @@
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
-      <c r="B661" s="16"/>
+      <c r="B661" s="14"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -19351,7 +19348,7 @@
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
-      <c r="B662" s="16"/>
+      <c r="B662" s="14"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -19379,7 +19376,7 @@
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
-      <c r="B663" s="16"/>
+      <c r="B663" s="14"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -19407,7 +19404,7 @@
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
-      <c r="B664" s="16"/>
+      <c r="B664" s="14"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -19435,7 +19432,7 @@
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
-      <c r="B665" s="16"/>
+      <c r="B665" s="14"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -19463,7 +19460,7 @@
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
-      <c r="B666" s="16"/>
+      <c r="B666" s="14"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -19491,7 +19488,7 @@
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
-      <c r="B667" s="16"/>
+      <c r="B667" s="14"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -19519,7 +19516,7 @@
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
-      <c r="B668" s="16"/>
+      <c r="B668" s="14"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -19547,7 +19544,7 @@
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
-      <c r="B669" s="16"/>
+      <c r="B669" s="14"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -19575,7 +19572,7 @@
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
-      <c r="B670" s="16"/>
+      <c r="B670" s="14"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -19603,7 +19600,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
-      <c r="B671" s="16"/>
+      <c r="B671" s="14"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -19631,7 +19628,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
-      <c r="B672" s="16"/>
+      <c r="B672" s="14"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -19659,7 +19656,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
-      <c r="B673" s="16"/>
+      <c r="B673" s="14"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -19687,7 +19684,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
-      <c r="B674" s="16"/>
+      <c r="B674" s="14"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -19715,7 +19712,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
-      <c r="B675" s="16"/>
+      <c r="B675" s="14"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -19743,7 +19740,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
-      <c r="B676" s="16"/>
+      <c r="B676" s="14"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -19771,7 +19768,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
-      <c r="B677" s="16"/>
+      <c r="B677" s="14"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -19799,7 +19796,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
-      <c r="B678" s="16"/>
+      <c r="B678" s="14"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -19827,7 +19824,7 @@
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
-      <c r="B679" s="16"/>
+      <c r="B679" s="14"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -19855,7 +19852,7 @@
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
-      <c r="B680" s="16"/>
+      <c r="B680" s="14"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -19883,7 +19880,7 @@
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
-      <c r="B681" s="16"/>
+      <c r="B681" s="14"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -19911,7 +19908,7 @@
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
-      <c r="B682" s="16"/>
+      <c r="B682" s="14"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -19939,7 +19936,7 @@
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
-      <c r="B683" s="16"/>
+      <c r="B683" s="14"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -19967,7 +19964,7 @@
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
-      <c r="B684" s="16"/>
+      <c r="B684" s="14"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -19995,7 +19992,7 @@
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
-      <c r="B685" s="16"/>
+      <c r="B685" s="14"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -20023,7 +20020,7 @@
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
-      <c r="B686" s="16"/>
+      <c r="B686" s="14"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -20051,7 +20048,7 @@
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
-      <c r="B687" s="16"/>
+      <c r="B687" s="14"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -20079,7 +20076,7 @@
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
-      <c r="B688" s="16"/>
+      <c r="B688" s="14"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -20107,7 +20104,7 @@
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
-      <c r="B689" s="16"/>
+      <c r="B689" s="14"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -20135,7 +20132,7 @@
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
-      <c r="B690" s="16"/>
+      <c r="B690" s="14"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -20163,7 +20160,7 @@
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
-      <c r="B691" s="16"/>
+      <c r="B691" s="14"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -20191,7 +20188,7 @@
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
-      <c r="B692" s="16"/>
+      <c r="B692" s="14"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -20219,7 +20216,7 @@
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
-      <c r="B693" s="16"/>
+      <c r="B693" s="14"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -20247,7 +20244,7 @@
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
-      <c r="B694" s="16"/>
+      <c r="B694" s="14"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -20275,7 +20272,7 @@
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
-      <c r="B695" s="16"/>
+      <c r="B695" s="14"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -20303,7 +20300,7 @@
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
-      <c r="B696" s="16"/>
+      <c r="B696" s="14"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -20331,7 +20328,7 @@
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
-      <c r="B697" s="16"/>
+      <c r="B697" s="14"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -20359,7 +20356,7 @@
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
-      <c r="B698" s="16"/>
+      <c r="B698" s="14"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -20387,7 +20384,7 @@
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
-      <c r="B699" s="16"/>
+      <c r="B699" s="14"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -20415,7 +20412,7 @@
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
-      <c r="B700" s="16"/>
+      <c r="B700" s="14"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -20443,7 +20440,7 @@
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
-      <c r="B701" s="16"/>
+      <c r="B701" s="14"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -20471,7 +20468,7 @@
     </row>
     <row r="702" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
-      <c r="B702" s="16"/>
+      <c r="B702" s="14"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -20499,7 +20496,7 @@
     </row>
     <row r="703" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
-      <c r="B703" s="16"/>
+      <c r="B703" s="14"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -20527,7 +20524,7 @@
     </row>
     <row r="704" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
-      <c r="B704" s="16"/>
+      <c r="B704" s="14"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -20555,7 +20552,7 @@
     </row>
     <row r="705" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
-      <c r="B705" s="16"/>
+      <c r="B705" s="14"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -20583,7 +20580,7 @@
     </row>
     <row r="706" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
-      <c r="B706" s="16"/>
+      <c r="B706" s="14"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -20611,7 +20608,7 @@
     </row>
     <row r="707" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
-      <c r="B707" s="16"/>
+      <c r="B707" s="14"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -20639,7 +20636,7 @@
     </row>
     <row r="708" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
-      <c r="B708" s="16"/>
+      <c r="B708" s="14"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -20667,7 +20664,7 @@
     </row>
     <row r="709" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
-      <c r="B709" s="16"/>
+      <c r="B709" s="14"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -20695,7 +20692,7 @@
     </row>
     <row r="710" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
-      <c r="B710" s="16"/>
+      <c r="B710" s="14"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -20723,7 +20720,7 @@
     </row>
     <row r="711" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
-      <c r="B711" s="16"/>
+      <c r="B711" s="14"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -20751,7 +20748,7 @@
     </row>
     <row r="712" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
-      <c r="B712" s="16"/>
+      <c r="B712" s="14"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -20779,7 +20776,7 @@
     </row>
     <row r="713" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
-      <c r="B713" s="16"/>
+      <c r="B713" s="14"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -20807,7 +20804,7 @@
     </row>
     <row r="714" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
-      <c r="B714" s="16"/>
+      <c r="B714" s="14"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -20835,7 +20832,7 @@
     </row>
     <row r="715" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
-      <c r="B715" s="16"/>
+      <c r="B715" s="14"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -20863,7 +20860,7 @@
     </row>
     <row r="716" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
-      <c r="B716" s="16"/>
+      <c r="B716" s="14"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -20891,7 +20888,7 @@
     </row>
     <row r="717" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
-      <c r="B717" s="16"/>
+      <c r="B717" s="14"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -20919,7 +20916,7 @@
     </row>
     <row r="718" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
-      <c r="B718" s="16"/>
+      <c r="B718" s="14"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -20947,7 +20944,7 @@
     </row>
     <row r="719" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
-      <c r="B719" s="16"/>
+      <c r="B719" s="14"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -20975,7 +20972,7 @@
     </row>
     <row r="720" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
-      <c r="B720" s="16"/>
+      <c r="B720" s="14"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -21003,7 +21000,7 @@
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
-      <c r="B721" s="16"/>
+      <c r="B721" s="14"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -21031,7 +21028,7 @@
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
-      <c r="B722" s="16"/>
+      <c r="B722" s="14"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -21059,7 +21056,7 @@
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
-      <c r="B723" s="16"/>
+      <c r="B723" s="14"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -21087,7 +21084,7 @@
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
-      <c r="B724" s="16"/>
+      <c r="B724" s="14"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -21115,7 +21112,7 @@
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
-      <c r="B725" s="16"/>
+      <c r="B725" s="14"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -21143,7 +21140,7 @@
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
-      <c r="B726" s="16"/>
+      <c r="B726" s="14"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -21171,7 +21168,7 @@
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
-      <c r="B727" s="16"/>
+      <c r="B727" s="14"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -21199,7 +21196,7 @@
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
-      <c r="B728" s="16"/>
+      <c r="B728" s="14"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -21227,7 +21224,7 @@
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
-      <c r="B729" s="16"/>
+      <c r="B729" s="14"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -21255,7 +21252,7 @@
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
-      <c r="B730" s="16"/>
+      <c r="B730" s="14"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -21283,7 +21280,7 @@
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
-      <c r="B731" s="16"/>
+      <c r="B731" s="14"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -21311,7 +21308,7 @@
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
-      <c r="B732" s="16"/>
+      <c r="B732" s="14"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -21339,7 +21336,7 @@
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
-      <c r="B733" s="16"/>
+      <c r="B733" s="14"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -21367,7 +21364,7 @@
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
-      <c r="B734" s="16"/>
+      <c r="B734" s="14"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -21395,7 +21392,7 @@
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
-      <c r="B735" s="16"/>
+      <c r="B735" s="14"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -21423,7 +21420,7 @@
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
-      <c r="B736" s="16"/>
+      <c r="B736" s="14"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -21451,7 +21448,7 @@
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
-      <c r="B737" s="16"/>
+      <c r="B737" s="14"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -21479,7 +21476,7 @@
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
-      <c r="B738" s="16"/>
+      <c r="B738" s="14"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -21507,7 +21504,7 @@
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
-      <c r="B739" s="16"/>
+      <c r="B739" s="14"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -21535,7 +21532,7 @@
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
-      <c r="B740" s="16"/>
+      <c r="B740" s="14"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -21563,7 +21560,7 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
-      <c r="B741" s="16"/>
+      <c r="B741" s="14"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -21591,7 +21588,7 @@
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
-      <c r="B742" s="16"/>
+      <c r="B742" s="14"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -21619,7 +21616,7 @@
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
-      <c r="B743" s="16"/>
+      <c r="B743" s="14"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -21647,7 +21644,7 @@
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
-      <c r="B744" s="16"/>
+      <c r="B744" s="14"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -21675,7 +21672,7 @@
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
-      <c r="B745" s="16"/>
+      <c r="B745" s="14"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -21703,7 +21700,7 @@
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
-      <c r="B746" s="16"/>
+      <c r="B746" s="14"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -21731,7 +21728,7 @@
     </row>
     <row r="747" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
-      <c r="B747" s="16"/>
+      <c r="B747" s="14"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -21759,7 +21756,7 @@
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
-      <c r="B748" s="16"/>
+      <c r="B748" s="14"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -21787,7 +21784,7 @@
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
-      <c r="B749" s="16"/>
+      <c r="B749" s="14"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -21815,7 +21812,7 @@
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
-      <c r="B750" s="16"/>
+      <c r="B750" s="14"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -21843,7 +21840,7 @@
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
-      <c r="B751" s="16"/>
+      <c r="B751" s="14"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -21871,7 +21868,7 @@
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
-      <c r="B752" s="16"/>
+      <c r="B752" s="14"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -21899,7 +21896,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
-      <c r="B753" s="16"/>
+      <c r="B753" s="14"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -21927,7 +21924,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
-      <c r="B754" s="16"/>
+      <c r="B754" s="14"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -21955,7 +21952,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
-      <c r="B755" s="16"/>
+      <c r="B755" s="14"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -21983,7 +21980,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
-      <c r="B756" s="16"/>
+      <c r="B756" s="14"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -22011,7 +22008,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
-      <c r="B757" s="16"/>
+      <c r="B757" s="14"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -22039,7 +22036,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
-      <c r="B758" s="16"/>
+      <c r="B758" s="14"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -22067,7 +22064,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
-      <c r="B759" s="16"/>
+      <c r="B759" s="14"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -22095,7 +22092,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
-      <c r="B760" s="16"/>
+      <c r="B760" s="14"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -22123,7 +22120,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
-      <c r="B761" s="16"/>
+      <c r="B761" s="14"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -22151,7 +22148,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
-      <c r="B762" s="16"/>
+      <c r="B762" s="14"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -22179,7 +22176,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
-      <c r="B763" s="16"/>
+      <c r="B763" s="14"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -22207,7 +22204,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
-      <c r="B764" s="16"/>
+      <c r="B764" s="14"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -22235,7 +22232,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
-      <c r="B765" s="16"/>
+      <c r="B765" s="14"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -22263,7 +22260,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
-      <c r="B766" s="16"/>
+      <c r="B766" s="14"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -22291,7 +22288,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
-      <c r="B767" s="16"/>
+      <c r="B767" s="14"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -22319,7 +22316,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
-      <c r="B768" s="16"/>
+      <c r="B768" s="14"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -22347,7 +22344,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
-      <c r="B769" s="16"/>
+      <c r="B769" s="14"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -22375,7 +22372,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
-      <c r="B770" s="16"/>
+      <c r="B770" s="14"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -22403,7 +22400,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
-      <c r="B771" s="16"/>
+      <c r="B771" s="14"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -22431,7 +22428,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
-      <c r="B772" s="16"/>
+      <c r="B772" s="14"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -22459,7 +22456,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
-      <c r="B773" s="16"/>
+      <c r="B773" s="14"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -22487,7 +22484,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
-      <c r="B774" s="16"/>
+      <c r="B774" s="14"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -22515,7 +22512,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
-      <c r="B775" s="16"/>
+      <c r="B775" s="14"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -22543,7 +22540,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
-      <c r="B776" s="16"/>
+      <c r="B776" s="14"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -22571,7 +22568,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
-      <c r="B777" s="16"/>
+      <c r="B777" s="14"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -22599,7 +22596,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
-      <c r="B778" s="16"/>
+      <c r="B778" s="14"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -22627,7 +22624,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
-      <c r="B779" s="16"/>
+      <c r="B779" s="14"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -22655,7 +22652,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
-      <c r="B780" s="16"/>
+      <c r="B780" s="14"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -22683,7 +22680,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
-      <c r="B781" s="16"/>
+      <c r="B781" s="14"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -22711,7 +22708,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
-      <c r="B782" s="16"/>
+      <c r="B782" s="14"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -22739,7 +22736,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
-      <c r="B783" s="16"/>
+      <c r="B783" s="14"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -22767,7 +22764,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
-      <c r="B784" s="16"/>
+      <c r="B784" s="14"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -22795,7 +22792,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
-      <c r="B785" s="16"/>
+      <c r="B785" s="14"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -22823,7 +22820,7 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
-      <c r="B786" s="16"/>
+      <c r="B786" s="14"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -22851,7 +22848,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
-      <c r="B787" s="16"/>
+      <c r="B787" s="14"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -22879,7 +22876,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
-      <c r="B788" s="16"/>
+      <c r="B788" s="14"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -22907,7 +22904,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
-      <c r="B789" s="16"/>
+      <c r="B789" s="14"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -22935,7 +22932,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
-      <c r="B790" s="16"/>
+      <c r="B790" s="14"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -22963,7 +22960,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
-      <c r="B791" s="16"/>
+      <c r="B791" s="14"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -22991,7 +22988,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
-      <c r="B792" s="16"/>
+      <c r="B792" s="14"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -23019,7 +23016,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
-      <c r="B793" s="16"/>
+      <c r="B793" s="14"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -23047,7 +23044,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
-      <c r="B794" s="16"/>
+      <c r="B794" s="14"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -23075,7 +23072,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
-      <c r="B795" s="16"/>
+      <c r="B795" s="14"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -23103,7 +23100,7 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
-      <c r="B796" s="16"/>
+      <c r="B796" s="14"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -23131,7 +23128,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
-      <c r="B797" s="16"/>
+      <c r="B797" s="14"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -23159,7 +23156,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
-      <c r="B798" s="16"/>
+      <c r="B798" s="14"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -23187,7 +23184,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
-      <c r="B799" s="16"/>
+      <c r="B799" s="14"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -23215,7 +23212,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
-      <c r="B800" s="16"/>
+      <c r="B800" s="14"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -23243,7 +23240,7 @@
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
-      <c r="B801" s="16"/>
+      <c r="B801" s="14"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -23271,7 +23268,7 @@
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
-      <c r="B802" s="16"/>
+      <c r="B802" s="14"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -23299,7 +23296,7 @@
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
-      <c r="B803" s="16"/>
+      <c r="B803" s="14"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -23327,7 +23324,7 @@
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
-      <c r="B804" s="16"/>
+      <c r="B804" s="14"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -23355,7 +23352,7 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
-      <c r="B805" s="16"/>
+      <c r="B805" s="14"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -23383,7 +23380,7 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
-      <c r="B806" s="16"/>
+      <c r="B806" s="14"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -23411,7 +23408,7 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
-      <c r="B807" s="16"/>
+      <c r="B807" s="14"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -23439,7 +23436,7 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
-      <c r="B808" s="16"/>
+      <c r="B808" s="14"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -23467,7 +23464,7 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
-      <c r="B809" s="16"/>
+      <c r="B809" s="14"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -23495,7 +23492,7 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
-      <c r="B810" s="16"/>
+      <c r="B810" s="14"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -23523,7 +23520,7 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
-      <c r="B811" s="16"/>
+      <c r="B811" s="14"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -23551,7 +23548,7 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
-      <c r="B812" s="16"/>
+      <c r="B812" s="14"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -23579,7 +23576,7 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
-      <c r="B813" s="16"/>
+      <c r="B813" s="14"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -23607,7 +23604,7 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
-      <c r="B814" s="16"/>
+      <c r="B814" s="14"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -23635,7 +23632,7 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
-      <c r="B815" s="16"/>
+      <c r="B815" s="14"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -23663,7 +23660,7 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
-      <c r="B816" s="16"/>
+      <c r="B816" s="14"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -23691,7 +23688,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
-      <c r="B817" s="16"/>
+      <c r="B817" s="14"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -23719,7 +23716,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
-      <c r="B818" s="16"/>
+      <c r="B818" s="14"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -23747,7 +23744,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
-      <c r="B819" s="16"/>
+      <c r="B819" s="14"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -23775,7 +23772,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
-      <c r="B820" s="16"/>
+      <c r="B820" s="14"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -23803,7 +23800,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
-      <c r="B821" s="16"/>
+      <c r="B821" s="14"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -23831,7 +23828,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
-      <c r="B822" s="16"/>
+      <c r="B822" s="14"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -23859,7 +23856,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
-      <c r="B823" s="16"/>
+      <c r="B823" s="14"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -23887,7 +23884,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
-      <c r="B824" s="16"/>
+      <c r="B824" s="14"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -23915,7 +23912,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
-      <c r="B825" s="16"/>
+      <c r="B825" s="14"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -23943,7 +23940,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
-      <c r="B826" s="16"/>
+      <c r="B826" s="14"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -23971,7 +23968,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
-      <c r="B827" s="16"/>
+      <c r="B827" s="14"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -23999,7 +23996,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
-      <c r="B828" s="16"/>
+      <c r="B828" s="14"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -24027,7 +24024,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
-      <c r="B829" s="16"/>
+      <c r="B829" s="14"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -24055,7 +24052,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
-      <c r="B830" s="16"/>
+      <c r="B830" s="14"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -24083,7 +24080,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
-      <c r="B831" s="16"/>
+      <c r="B831" s="14"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -24111,7 +24108,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
-      <c r="B832" s="16"/>
+      <c r="B832" s="14"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -24139,7 +24136,7 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
-      <c r="B833" s="16"/>
+      <c r="B833" s="14"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -24167,7 +24164,7 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
-      <c r="B834" s="16"/>
+      <c r="B834" s="14"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -24195,7 +24192,7 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
-      <c r="B835" s="16"/>
+      <c r="B835" s="14"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -24223,7 +24220,7 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
-      <c r="B836" s="16"/>
+      <c r="B836" s="14"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -24251,7 +24248,7 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
-      <c r="B837" s="16"/>
+      <c r="B837" s="14"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -24279,7 +24276,7 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
-      <c r="B838" s="16"/>
+      <c r="B838" s="14"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -24307,7 +24304,7 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
-      <c r="B839" s="16"/>
+      <c r="B839" s="14"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -24335,7 +24332,7 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
-      <c r="B840" s="16"/>
+      <c r="B840" s="14"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -24363,7 +24360,7 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
-      <c r="B841" s="16"/>
+      <c r="B841" s="14"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -24391,7 +24388,7 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
-      <c r="B842" s="16"/>
+      <c r="B842" s="14"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -24419,7 +24416,7 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
-      <c r="B843" s="16"/>
+      <c r="B843" s="14"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -24447,7 +24444,7 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
-      <c r="B844" s="16"/>
+      <c r="B844" s="14"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -24475,7 +24472,7 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
-      <c r="B845" s="16"/>
+      <c r="B845" s="14"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -24503,7 +24500,7 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
-      <c r="B846" s="16"/>
+      <c r="B846" s="14"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -24531,7 +24528,7 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
-      <c r="B847" s="16"/>
+      <c r="B847" s="14"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -24559,7 +24556,7 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
-      <c r="B848" s="16"/>
+      <c r="B848" s="14"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -24587,7 +24584,7 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
-      <c r="B849" s="16"/>
+      <c r="B849" s="14"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -24615,7 +24612,7 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
-      <c r="B850" s="16"/>
+      <c r="B850" s="14"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -24643,7 +24640,7 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
-      <c r="B851" s="16"/>
+      <c r="B851" s="14"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -24671,7 +24668,7 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
-      <c r="B852" s="16"/>
+      <c r="B852" s="14"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -24699,7 +24696,7 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
-      <c r="B853" s="16"/>
+      <c r="B853" s="14"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -24727,7 +24724,7 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
-      <c r="B854" s="16"/>
+      <c r="B854" s="14"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -24755,7 +24752,7 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
-      <c r="B855" s="16"/>
+      <c r="B855" s="14"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -24783,7 +24780,7 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
-      <c r="B856" s="16"/>
+      <c r="B856" s="14"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -24811,7 +24808,7 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
-      <c r="B857" s="16"/>
+      <c r="B857" s="14"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -24839,7 +24836,7 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
-      <c r="B858" s="16"/>
+      <c r="B858" s="14"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -24867,7 +24864,7 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
-      <c r="B859" s="16"/>
+      <c r="B859" s="14"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -24895,7 +24892,7 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
-      <c r="B860" s="16"/>
+      <c r="B860" s="14"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -24923,7 +24920,7 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
-      <c r="B861" s="16"/>
+      <c r="B861" s="14"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -24951,7 +24948,7 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
-      <c r="B862" s="16"/>
+      <c r="B862" s="14"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -24979,7 +24976,7 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
-      <c r="B863" s="16"/>
+      <c r="B863" s="14"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -25007,7 +25004,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
-      <c r="B864" s="16"/>
+      <c r="B864" s="14"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -25035,7 +25032,7 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
-      <c r="B865" s="16"/>
+      <c r="B865" s="14"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -25063,7 +25060,7 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
-      <c r="B866" s="16"/>
+      <c r="B866" s="14"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -25091,7 +25088,7 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
-      <c r="B867" s="16"/>
+      <c r="B867" s="14"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -25119,7 +25116,7 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
-      <c r="B868" s="16"/>
+      <c r="B868" s="14"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -25147,7 +25144,7 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
-      <c r="B869" s="16"/>
+      <c r="B869" s="14"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -25175,7 +25172,7 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
-      <c r="B870" s="16"/>
+      <c r="B870" s="14"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -25203,7 +25200,7 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
-      <c r="B871" s="16"/>
+      <c r="B871" s="14"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -25231,7 +25228,7 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
-      <c r="B872" s="16"/>
+      <c r="B872" s="14"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -25259,7 +25256,7 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
-      <c r="B873" s="16"/>
+      <c r="B873" s="14"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -25287,7 +25284,7 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
-      <c r="B874" s="16"/>
+      <c r="B874" s="14"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -25315,7 +25312,7 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
-      <c r="B875" s="16"/>
+      <c r="B875" s="14"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -25343,7 +25340,7 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
-      <c r="B876" s="16"/>
+      <c r="B876" s="14"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -25371,7 +25368,7 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
-      <c r="B877" s="16"/>
+      <c r="B877" s="14"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -25399,7 +25396,7 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
-      <c r="B878" s="16"/>
+      <c r="B878" s="14"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -25427,7 +25424,7 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
-      <c r="B879" s="16"/>
+      <c r="B879" s="14"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -25455,7 +25452,7 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
-      <c r="B880" s="16"/>
+      <c r="B880" s="14"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -25483,7 +25480,7 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
-      <c r="B881" s="16"/>
+      <c r="B881" s="14"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -25511,7 +25508,7 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
-      <c r="B882" s="16"/>
+      <c r="B882" s="14"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -25539,7 +25536,7 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
-      <c r="B883" s="16"/>
+      <c r="B883" s="14"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -25567,7 +25564,7 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
-      <c r="B884" s="16"/>
+      <c r="B884" s="14"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -25595,7 +25592,7 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
-      <c r="B885" s="16"/>
+      <c r="B885" s="14"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -25623,7 +25620,7 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
-      <c r="B886" s="16"/>
+      <c r="B886" s="14"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -25651,7 +25648,7 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
-      <c r="B887" s="16"/>
+      <c r="B887" s="14"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -25679,7 +25676,7 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
-      <c r="B888" s="16"/>
+      <c r="B888" s="14"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -25707,7 +25704,7 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
-      <c r="B889" s="16"/>
+      <c r="B889" s="14"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -25735,7 +25732,7 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
-      <c r="B890" s="16"/>
+      <c r="B890" s="14"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -25763,7 +25760,7 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
-      <c r="B891" s="16"/>
+      <c r="B891" s="14"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -25791,7 +25788,7 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
-      <c r="B892" s="16"/>
+      <c r="B892" s="14"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -25819,7 +25816,7 @@
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
-      <c r="B893" s="16"/>
+      <c r="B893" s="14"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -25847,7 +25844,7 @@
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
-      <c r="B894" s="16"/>
+      <c r="B894" s="14"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -25875,7 +25872,7 @@
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
-      <c r="B895" s="16"/>
+      <c r="B895" s="14"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -25903,7 +25900,7 @@
     </row>
     <row r="896" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
-      <c r="B896" s="16"/>
+      <c r="B896" s="14"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -25931,7 +25928,7 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
-      <c r="B897" s="16"/>
+      <c r="B897" s="14"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -25959,7 +25956,7 @@
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
-      <c r="B898" s="16"/>
+      <c r="B898" s="14"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -25987,7 +25984,7 @@
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
-      <c r="B899" s="16"/>
+      <c r="B899" s="14"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -26015,7 +26012,7 @@
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
-      <c r="B900" s="16"/>
+      <c r="B900" s="14"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -26043,7 +26040,7 @@
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
-      <c r="B901" s="16"/>
+      <c r="B901" s="14"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -26071,7 +26068,7 @@
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
-      <c r="B902" s="16"/>
+      <c r="B902" s="14"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -26099,7 +26096,7 @@
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
-      <c r="B903" s="16"/>
+      <c r="B903" s="14"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -26127,7 +26124,7 @@
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
-      <c r="B904" s="16"/>
+      <c r="B904" s="14"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -26155,7 +26152,7 @@
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
-      <c r="B905" s="16"/>
+      <c r="B905" s="14"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -26183,7 +26180,7 @@
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
-      <c r="B906" s="16"/>
+      <c r="B906" s="14"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -26211,7 +26208,7 @@
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
-      <c r="B907" s="16"/>
+      <c r="B907" s="14"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -26239,7 +26236,7 @@
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
-      <c r="B908" s="16"/>
+      <c r="B908" s="14"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -26267,7 +26264,7 @@
     </row>
     <row r="909" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
-      <c r="B909" s="16"/>
+      <c r="B909" s="14"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -26295,7 +26292,7 @@
     </row>
     <row r="910" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
-      <c r="B910" s="16"/>
+      <c r="B910" s="14"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -26323,7 +26320,7 @@
     </row>
     <row r="911" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
-      <c r="B911" s="16"/>
+      <c r="B911" s="14"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -26351,7 +26348,7 @@
     </row>
     <row r="912" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
-      <c r="B912" s="16"/>
+      <c r="B912" s="14"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -26379,7 +26376,7 @@
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
-      <c r="B913" s="16"/>
+      <c r="B913" s="14"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -26407,7 +26404,7 @@
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
-      <c r="B914" s="16"/>
+      <c r="B914" s="14"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -26435,7 +26432,7 @@
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
-      <c r="B915" s="16"/>
+      <c r="B915" s="14"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -26463,7 +26460,7 @@
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
-      <c r="B916" s="16"/>
+      <c r="B916" s="14"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -26491,7 +26488,7 @@
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
-      <c r="B917" s="16"/>
+      <c r="B917" s="14"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -26519,7 +26516,7 @@
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
-      <c r="B918" s="16"/>
+      <c r="B918" s="14"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -26547,7 +26544,7 @@
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
-      <c r="B919" s="16"/>
+      <c r="B919" s="14"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -26575,7 +26572,7 @@
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
-      <c r="B920" s="16"/>
+      <c r="B920" s="14"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -26603,7 +26600,7 @@
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
-      <c r="B921" s="16"/>
+      <c r="B921" s="14"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -26631,7 +26628,7 @@
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
-      <c r="B922" s="16"/>
+      <c r="B922" s="14"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -26659,7 +26656,7 @@
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
-      <c r="B923" s="16"/>
+      <c r="B923" s="14"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -26687,7 +26684,7 @@
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
-      <c r="B924" s="16"/>
+      <c r="B924" s="14"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -26715,7 +26712,7 @@
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
-      <c r="B925" s="16"/>
+      <c r="B925" s="14"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -26743,7 +26740,7 @@
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
-      <c r="B926" s="16"/>
+      <c r="B926" s="14"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -26771,7 +26768,7 @@
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
-      <c r="B927" s="16"/>
+      <c r="B927" s="14"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -26799,7 +26796,7 @@
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
-      <c r="B928" s="16"/>
+      <c r="B928" s="14"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -26827,7 +26824,7 @@
     </row>
     <row r="929" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
-      <c r="B929" s="16"/>
+      <c r="B929" s="14"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -26855,7 +26852,7 @@
     </row>
     <row r="930" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
-      <c r="B930" s="16"/>
+      <c r="B930" s="14"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -26883,7 +26880,7 @@
     </row>
     <row r="931" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
-      <c r="B931" s="16"/>
+      <c r="B931" s="14"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -26911,7 +26908,7 @@
     </row>
     <row r="932" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
-      <c r="B932" s="16"/>
+      <c r="B932" s="14"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -26939,7 +26936,7 @@
     </row>
     <row r="933" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
-      <c r="B933" s="16"/>
+      <c r="B933" s="14"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -26967,7 +26964,7 @@
     </row>
     <row r="934" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
-      <c r="B934" s="16"/>
+      <c r="B934" s="14"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -26995,7 +26992,7 @@
     </row>
     <row r="935" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
-      <c r="B935" s="16"/>
+      <c r="B935" s="14"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -27023,7 +27020,7 @@
     </row>
     <row r="936" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
-      <c r="B936" s="16"/>
+      <c r="B936" s="14"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -27051,7 +27048,7 @@
     </row>
     <row r="937" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
-      <c r="B937" s="16"/>
+      <c r="B937" s="14"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -27079,7 +27076,7 @@
     </row>
     <row r="938" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
-      <c r="B938" s="16"/>
+      <c r="B938" s="14"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -27107,7 +27104,7 @@
     </row>
     <row r="939" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
-      <c r="B939" s="16"/>
+      <c r="B939" s="14"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -27135,7 +27132,7 @@
     </row>
     <row r="940" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
-      <c r="B940" s="16"/>
+      <c r="B940" s="14"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -27163,7 +27160,7 @@
     </row>
     <row r="941" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
-      <c r="B941" s="16"/>
+      <c r="B941" s="14"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -27191,7 +27188,7 @@
     </row>
     <row r="942" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
-      <c r="B942" s="16"/>
+      <c r="B942" s="14"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -27219,7 +27216,7 @@
     </row>
     <row r="943" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
-      <c r="B943" s="16"/>
+      <c r="B943" s="14"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -27247,7 +27244,7 @@
     </row>
     <row r="944" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
-      <c r="B944" s="16"/>
+      <c r="B944" s="14"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -27275,7 +27272,7 @@
     </row>
     <row r="945" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
-      <c r="B945" s="16"/>
+      <c r="B945" s="14"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -27303,7 +27300,7 @@
     </row>
     <row r="946" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
-      <c r="B946" s="16"/>
+      <c r="B946" s="14"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -27331,7 +27328,7 @@
     </row>
     <row r="947" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
-      <c r="B947" s="16"/>
+      <c r="B947" s="14"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -27359,7 +27356,7 @@
     </row>
     <row r="948" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
-      <c r="B948" s="16"/>
+      <c r="B948" s="14"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -27387,7 +27384,7 @@
     </row>
     <row r="949" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
-      <c r="B949" s="16"/>
+      <c r="B949" s="14"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -27415,7 +27412,7 @@
     </row>
     <row r="950" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
-      <c r="B950" s="16"/>
+      <c r="B950" s="14"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -27443,7 +27440,7 @@
     </row>
     <row r="951" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
-      <c r="B951" s="16"/>
+      <c r="B951" s="14"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -27471,7 +27468,7 @@
     </row>
     <row r="952" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
-      <c r="B952" s="16"/>
+      <c r="B952" s="14"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -27499,7 +27496,7 @@
     </row>
     <row r="953" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
-      <c r="B953" s="16"/>
+      <c r="B953" s="14"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -27527,7 +27524,7 @@
     </row>
     <row r="954" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
-      <c r="B954" s="16"/>
+      <c r="B954" s="14"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -27555,7 +27552,7 @@
     </row>
     <row r="955" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
-      <c r="B955" s="16"/>
+      <c r="B955" s="14"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -27583,7 +27580,7 @@
     </row>
     <row r="956" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
-      <c r="B956" s="16"/>
+      <c r="B956" s="14"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -27611,7 +27608,7 @@
     </row>
     <row r="957" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
-      <c r="B957" s="16"/>
+      <c r="B957" s="14"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -27639,7 +27636,7 @@
     </row>
     <row r="958" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
-      <c r="B958" s="16"/>
+      <c r="B958" s="14"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -27667,7 +27664,7 @@
     </row>
     <row r="959" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
-      <c r="B959" s="16"/>
+      <c r="B959" s="14"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -27695,7 +27692,7 @@
     </row>
     <row r="960" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
-      <c r="B960" s="16"/>
+      <c r="B960" s="14"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -27723,7 +27720,7 @@
     </row>
     <row r="961" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
-      <c r="B961" s="16"/>
+      <c r="B961" s="14"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -27751,7 +27748,7 @@
     </row>
     <row r="962" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
-      <c r="B962" s="16"/>
+      <c r="B962" s="14"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -27779,7 +27776,7 @@
     </row>
     <row r="963" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
-      <c r="B963" s="16"/>
+      <c r="B963" s="14"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -27807,7 +27804,7 @@
     </row>
     <row r="964" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
-      <c r="B964" s="16"/>
+      <c r="B964" s="14"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -27835,7 +27832,7 @@
     </row>
     <row r="965" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
-      <c r="B965" s="16"/>
+      <c r="B965" s="14"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -27863,7 +27860,7 @@
     </row>
     <row r="966" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
-      <c r="B966" s="16"/>
+      <c r="B966" s="14"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -27891,7 +27888,7 @@
     </row>
     <row r="967" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
-      <c r="B967" s="16"/>
+      <c r="B967" s="14"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -27919,7 +27916,7 @@
     </row>
     <row r="968" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
-      <c r="B968" s="16"/>
+      <c r="B968" s="14"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -27947,7 +27944,7 @@
     </row>
     <row r="969" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
-      <c r="B969" s="16"/>
+      <c r="B969" s="14"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -27975,7 +27972,7 @@
     </row>
     <row r="970" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
-      <c r="B970" s="16"/>
+      <c r="B970" s="14"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -28003,7 +28000,7 @@
     </row>
     <row r="971" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
-      <c r="B971" s="16"/>
+      <c r="B971" s="14"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -28031,7 +28028,7 @@
     </row>
     <row r="972" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
-      <c r="B972" s="16"/>
+      <c r="B972" s="14"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -28059,7 +28056,7 @@
     </row>
     <row r="973" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
-      <c r="B973" s="16"/>
+      <c r="B973" s="14"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -28087,7 +28084,7 @@
     </row>
     <row r="974" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
-      <c r="B974" s="16"/>
+      <c r="B974" s="14"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -28115,7 +28112,7 @@
     </row>
     <row r="975" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
-      <c r="B975" s="16"/>
+      <c r="B975" s="14"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -28143,7 +28140,7 @@
     </row>
     <row r="976" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
-      <c r="B976" s="16"/>
+      <c r="B976" s="14"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -28171,7 +28168,7 @@
     </row>
     <row r="977" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
-      <c r="B977" s="16"/>
+      <c r="B977" s="14"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -28199,7 +28196,7 @@
     </row>
     <row r="978" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
-      <c r="B978" s="16"/>
+      <c r="B978" s="14"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -28227,7 +28224,7 @@
     </row>
     <row r="979" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
-      <c r="B979" s="16"/>
+      <c r="B979" s="14"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -28255,7 +28252,7 @@
     </row>
     <row r="980" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
-      <c r="B980" s="16"/>
+      <c r="B980" s="14"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -28283,7 +28280,7 @@
     </row>
     <row r="981" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
-      <c r="B981" s="16"/>
+      <c r="B981" s="14"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -28311,7 +28308,7 @@
     </row>
     <row r="982" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
-      <c r="B982" s="16"/>
+      <c r="B982" s="14"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -28339,7 +28336,7 @@
     </row>
     <row r="983" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
-      <c r="B983" s="16"/>
+      <c r="B983" s="14"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -28367,7 +28364,7 @@
     </row>
     <row r="984" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
-      <c r="B984" s="16"/>
+      <c r="B984" s="14"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -28395,7 +28392,7 @@
     </row>
     <row r="985" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
-      <c r="B985" s="16"/>
+      <c r="B985" s="14"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -28423,7 +28420,7 @@
     </row>
     <row r="986" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
-      <c r="B986" s="16"/>
+      <c r="B986" s="14"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -28451,7 +28448,7 @@
     </row>
     <row r="987" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
-      <c r="B987" s="16"/>
+      <c r="B987" s="14"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -28479,7 +28476,7 @@
     </row>
     <row r="988" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
-      <c r="B988" s="16"/>
+      <c r="B988" s="14"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
@@ -28507,7 +28504,7 @@
     </row>
     <row r="989" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
-      <c r="B989" s="16"/>
+      <c r="B989" s="14"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
@@ -28535,7 +28532,7 @@
     </row>
     <row r="990" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
-      <c r="B990" s="16"/>
+      <c r="B990" s="14"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
@@ -28563,7 +28560,7 @@
     </row>
     <row r="991" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
-      <c r="B991" s="16"/>
+      <c r="B991" s="14"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
@@ -28591,7 +28588,7 @@
     </row>
     <row r="992" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
-      <c r="B992" s="16"/>
+      <c r="B992" s="14"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
@@ -28619,7 +28616,7 @@
     </row>
     <row r="993" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
-      <c r="B993" s="16"/>
+      <c r="B993" s="14"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
@@ -28647,7 +28644,7 @@
     </row>
     <row r="994" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
-      <c r="B994" s="16"/>
+      <c r="B994" s="14"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
@@ -28675,7 +28672,7 @@
     </row>
     <row r="995" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
-      <c r="B995" s="16"/>
+      <c r="B995" s="14"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
@@ -28703,7 +28700,7 @@
     </row>
     <row r="996" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
-      <c r="B996" s="16"/>
+      <c r="B996" s="14"/>
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
@@ -28791,7 +28788,7 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
